--- a/sedDegr.xlsx
+++ b/sedDegr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="169" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="169" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WFL" sheetId="1" state="visible" r:id="rId2"/>
@@ -419,8 +419,8 @@
   </sheetPr>
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3629,8 +3629,8 @@
   </sheetPr>
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3727,52 +3727,52 @@
         <v>4.282929</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.000815510676470679</v>
+        <v>3.07459833141088E-006</v>
       </c>
       <c r="F2" s="7" t="n">
-        <v>0.000384933601619555</v>
+        <v>1.45125777428864E-006</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>0.000152563621131949</v>
+        <v>5.75187877363315E-007</v>
       </c>
       <c r="H2" s="7" t="n">
-        <v>7.46135090840137E-005</v>
+        <v>2.81304190305921E-007</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>7.26111143878699E-005</v>
+        <v>2.73754860089629E-007</v>
       </c>
       <c r="K2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="7" t="n">
-        <v>3.52580373434581E-005</v>
+        <v>1.32928122111368E-007</v>
       </c>
       <c r="M2" s="7" t="n">
-        <v>3.89026441157348E-005</v>
+        <v>1.46668839705877E-007</v>
       </c>
       <c r="N2" s="7" t="n">
-        <v>2.92807889103663E-005</v>
+        <v>1.10392993401164E-007</v>
       </c>
       <c r="O2" s="7" t="n">
-        <v>8.83909119203237E-008</v>
+        <v>3.33247078356164E-010</v>
       </c>
       <c r="P2" s="7" t="n">
-        <v>2.98786181139122E-008</v>
+        <v>1.12646899726027E-010</v>
       </c>
       <c r="Q2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="7" t="n">
-        <v>0.000163311299021603</v>
+        <v>6.15708245102806E-007</v>
       </c>
       <c r="S2" s="7" t="n">
-        <v>2.22950061081134E-005</v>
+        <v>8.40555379059655E-008</v>
       </c>
       <c r="T2" s="7" t="n">
-        <v>7.22244114281061E-005</v>
+        <v>2.72296931568096E-007</v>
       </c>
       <c r="U2" s="7" t="n">
         <v>0</v>
@@ -3801,52 +3801,52 @@
         <v>6.676614</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.00235673458147873</v>
+        <v>1.38511172097164E-005</v>
       </c>
       <c r="F3" s="7" t="n">
-        <v>0.000409157459577295</v>
+        <v>2.40472048671641E-006</v>
       </c>
       <c r="G3" s="7" t="n">
-        <v>0.000221864301276066</v>
+        <v>1.30395186024658E-006</v>
       </c>
       <c r="H3" s="7" t="n">
-        <v>0.000400316130596054</v>
+        <v>2.35275779012289E-006</v>
       </c>
       <c r="I3" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.000253239576592184</v>
+        <v>1.48835218233036E-006</v>
       </c>
       <c r="K3" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="7" t="n">
-        <v>6.32489194886477E-005</v>
+        <v>3.71729682294343E-007</v>
       </c>
       <c r="M3" s="7" t="n">
-        <v>0.000111189625103397</v>
+        <v>6.53489171803658E-007</v>
       </c>
       <c r="N3" s="7" t="n">
-        <v>8.65242636915285E-005</v>
+        <v>5.0852468805537E-007</v>
       </c>
       <c r="O3" s="7" t="n">
-        <v>5.41549953314659E-008</v>
+        <v>3.18282420821918E-010</v>
       </c>
       <c r="P3" s="7" t="n">
-        <v>1.2922502334267E-007</v>
+        <v>7.59487707616438E-010</v>
       </c>
       <c r="Q3" s="7" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="7" t="n">
-        <v>0.000621695529451488</v>
+        <v>3.65385975784603E-006</v>
       </c>
       <c r="S3" s="7" t="n">
-        <v>0.000149719393224001</v>
+        <v>8.79938233355096E-007</v>
       </c>
       <c r="T3" s="7" t="n">
-        <v>0.000124016197834891</v>
+        <v>7.28874140352559E-007</v>
       </c>
       <c r="U3" s="7" t="n">
         <v>0</v>
@@ -3875,34 +3875,34 @@
         <v>11.647125</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.00484560288044557</v>
+        <v>4.96803236406428E-005</v>
       </c>
       <c r="F4" s="7" t="n">
-        <v>0.000468837056719885</v>
+        <v>4.80682740357553E-006</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>0.000952427620782683</v>
+        <v>9.76491751639792E-006</v>
       </c>
       <c r="H4" s="7" t="n">
-        <v>0.00046765071112474</v>
+        <v>4.79466420436781E-006</v>
       </c>
       <c r="I4" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.000580924171547781</v>
+        <v>5.9560185936063E-006</v>
       </c>
       <c r="K4" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>0.000161989464641133</v>
+        <v>1.66082306542751E-006</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.000208902737012369</v>
+        <v>2.14180894312914E-006</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.000159318706455349</v>
+        <v>1.63344068715398E-006</v>
       </c>
       <c r="O4" s="7" t="n">
         <v>0</v>
@@ -3914,13 +3914,13 @@
         <v>0</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.00151784155919407</v>
+        <v>1.5561914947732E-005</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.000173965793332482</v>
+        <v>1.78361230344246E-006</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.000222246569523838</v>
+        <v>2.27861873421861E-006</v>
       </c>
       <c r="U4" s="7" t="n">
         <v>0</v>
@@ -3949,34 +3949,34 @@
         <v>8.53372799999999</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.00273918636418044</v>
+        <v>2.05768190471702E-005</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>0.00108984664336986</v>
+        <v>8.18694830809628E-006</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>0.000561812067127482</v>
+        <v>4.22034272474836E-006</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>0.000401912001757261</v>
+        <v>3.01917045192342E-006</v>
       </c>
       <c r="I5" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.000376300563723256</v>
+        <v>2.8267768518183E-006</v>
       </c>
       <c r="K5" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="7" t="n">
-        <v>9.23204296877299E-005</v>
+        <v>6.93512789375247E-007</v>
       </c>
       <c r="M5" s="7" t="n">
-        <v>0.0001704759142019</v>
+        <v>1.28061824646348E-006</v>
       </c>
       <c r="N5" s="7" t="n">
-        <v>0.000142389200217438</v>
+        <v>1.06963032726039E-006</v>
       </c>
       <c r="O5" s="7" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>0.000835518545498752</v>
+        <v>6.27643089426178E-006</v>
       </c>
       <c r="S5" s="7" t="n">
-        <v>0.000280112044817927</v>
+        <v>2.10420690410959E-006</v>
       </c>
       <c r="T5" s="7" t="n">
-        <v>0.000174032918061246</v>
+        <v>1.30733852578472E-006</v>
       </c>
       <c r="U5" s="7" t="n">
         <v>0</v>
@@ -4023,52 +4023,52 @@
         <v>19.862766</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0.0559433059757236</v>
+        <v>0.000978150575645274</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>0.000432441755192344</v>
+        <v>7.56110394973797E-006</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>0.00310901683784625</v>
+        <v>5.43601518821542E-005</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>0.00291491882041706</v>
+        <v>5.09664109480315E-005</v>
       </c>
       <c r="I6" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.00186854956427015</v>
+        <v>3.26709835973175E-005</v>
       </c>
       <c r="K6" s="7" t="n">
-        <v>0.000274021241830065</v>
+        <v>4.79117261234836E-006</v>
       </c>
       <c r="L6" s="7" t="n">
-        <v>0.000153693101462807</v>
+        <v>2.68727407232226E-006</v>
       </c>
       <c r="M6" s="7" t="n">
-        <v>0.000540388380018674</v>
+        <v>9.44851570296293E-006</v>
       </c>
       <c r="N6" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O6" s="7" t="n">
-        <v>1.37254901960784E-006</v>
+        <v>2.3998574810959E-008</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q6" s="7" t="n">
-        <v>2.50673295985061E-005</v>
+        <v>4.38294134553091E-007</v>
       </c>
       <c r="R6" s="7" t="n">
-        <v>0.0115926991067538</v>
+        <v>0.000202694587078469</v>
       </c>
       <c r="S6" s="7" t="n">
-        <v>0.00262233426704015</v>
+        <v>4.58506648490301E-005</v>
       </c>
       <c r="T6" s="7" t="n">
-        <v>0.0022531773653906</v>
+        <v>3.93960760549997E-005</v>
       </c>
       <c r="U6" s="7" t="n">
         <v>0</v>
@@ -4097,52 +4097,52 @@
         <v>4.36967999999999</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.0125880291919546</v>
+        <v>4.8420050315231E-005</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>0.0124061178453408</v>
+        <v>4.77203254876482E-005</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>0.00113807606598195</v>
+        <v>4.37762731060603E-006</v>
       </c>
       <c r="H7" s="7" t="n">
-        <v>0.0023188352692188</v>
+        <v>8.91943597335058E-006</v>
       </c>
       <c r="I7" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.00201409617180205</v>
+        <v>7.74725228955617E-006</v>
       </c>
       <c r="K7" s="7" t="n">
-        <v>0.00056438779956427</v>
+        <v>2.17092646001096E-006</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>0.000417665994397759</v>
+        <v>1.60655875159759E-006</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>0.00157708486772487</v>
+        <v>6.06628150301984E-006</v>
       </c>
       <c r="N7" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>2.69281045751634E-006</v>
+        <v>1.03579373589041E-008</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>7.71864301276066E-007</v>
+        <v>2.96898805479452E-009</v>
       </c>
       <c r="Q7" s="7" t="n">
         <v>0</v>
       </c>
       <c r="R7" s="7" t="n">
-        <v>0.00390893766573296</v>
+        <v>1.50357896035752E-005</v>
       </c>
       <c r="S7" s="7" t="n">
-        <v>0.000311235605353252</v>
+        <v>1.19717260273972E-006</v>
       </c>
       <c r="T7" s="7" t="n">
-        <v>0.00225626649237473</v>
+        <v>8.67876419886115E-006</v>
       </c>
       <c r="U7" s="7" t="n">
         <v>0</v>
@@ -4171,52 +4171,52 @@
         <v>5.70628800000001</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.00493078835978836</v>
+        <v>2.47678272639518E-005</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>0.00272172424525366</v>
+        <v>1.36714843647124E-005</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>0.000462620603797074</v>
+        <v>2.32378807758904E-006</v>
       </c>
       <c r="H8" s="7" t="n">
-        <v>0.000563803299097417</v>
+        <v>2.83203855123288E-006</v>
       </c>
       <c r="I8" s="7" t="n">
-        <v>6.27139744786804E-005</v>
+        <v>3.15018364931507E-007</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.000627482103952692</v>
+        <v>3.15190335254795E-006</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>3.48583877995643E-005</v>
+        <v>1.75097056438356E-007</v>
       </c>
       <c r="L8" s="7" t="n">
-        <v>0.000108434484905073</v>
+        <v>5.44676914849315E-007</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>0.000169900404606287</v>
+        <v>8.53426179813699E-007</v>
       </c>
       <c r="N8" s="7" t="n">
-        <v>0.000231310301898537</v>
+        <v>1.16189403879452E-006</v>
       </c>
       <c r="O8" s="7" t="n">
-        <v>1.00217864923747E-006</v>
+        <v>5.03404037260274E-009</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="7" t="n">
-        <v>9.95953937130408E-006</v>
+        <v>5.00277304109589E-008</v>
       </c>
       <c r="R8" s="7" t="n">
-        <v>0.00162518425147837</v>
+        <v>8.16345782369753E-006</v>
       </c>
       <c r="S8" s="7" t="n">
-        <v>0.000171553065670713</v>
+        <v>8.61727656328767E-007</v>
       </c>
       <c r="T8" s="7" t="n">
-        <v>0.000151384998443822</v>
+        <v>7.60421502246575E-007</v>
       </c>
       <c r="U8" s="7" t="n">
         <v>0</v>
@@ -4245,52 +4245,52 @@
         <v>8.263836</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0.0108558979147214</v>
+        <v>7.89705752547945E-005</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>0.00103535636476813</v>
+        <v>7.53163748975343E-006</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>0.000635403361344538</v>
+        <v>4.6222034656537E-006</v>
       </c>
       <c r="H9" s="7" t="n">
-        <v>8.8608776844071E-005</v>
+        <v>6.44579208E-007</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>3.79707438530968E-005</v>
+        <v>2.76215888219178E-007</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.000959975101151572</v>
+        <v>6.98328102969863E-006</v>
       </c>
       <c r="K9" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L9" s="7" t="n">
-        <v>0.000162822906940554</v>
+        <v>1.18444542558904E-006</v>
       </c>
       <c r="M9" s="7" t="n">
-        <v>0.000217366946778712</v>
+        <v>1.58122275682192E-006</v>
       </c>
       <c r="N9" s="7" t="n">
-        <v>0.000262171179582944</v>
+        <v>1.90714844866192E-006</v>
       </c>
       <c r="O9" s="7" t="n">
-        <v>6.5359477124183E-007</v>
+        <v>4.75453578082192E-009</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>4.35729847494554E-007</v>
+        <v>3.16969052054794E-009</v>
       </c>
       <c r="Q9" s="7" t="n">
         <v>0</v>
       </c>
       <c r="R9" s="7" t="n">
-        <v>0.00218207282913165</v>
+        <v>1.58733573139726E-005</v>
       </c>
       <c r="S9" s="7" t="n">
-        <v>0.000263492063492064</v>
+        <v>1.91675713906849E-006</v>
       </c>
       <c r="T9" s="7" t="n">
-        <v>0.000105695611577965</v>
+        <v>7.6887635769863E-007</v>
       </c>
       <c r="U9" s="7" t="n">
         <v>0</v>
@@ -4319,34 +4319,34 @@
         <v>11.235861</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>0.0100062247121071</v>
+        <v>9.89679263424658E-005</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>0.00100687830687831</v>
+        <v>9.95866682769863E-006</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>0.000980550887021476</v>
+        <v>9.69827190112603E-006</v>
       </c>
       <c r="H10" s="7" t="n">
-        <v>0.000169338624338624</v>
+        <v>1.67486669374932E-006</v>
       </c>
       <c r="I10" s="7" t="n">
-        <v>7.15841892312481E-006</v>
+        <v>7.0801315890411E-008</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.000543059446000623</v>
+        <v>5.37120330571233E-006</v>
       </c>
       <c r="K10" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="7" t="n">
-        <v>6.6604419545596E-005</v>
+        <v>6.58760069589041E-007</v>
       </c>
       <c r="M10" s="7" t="n">
-        <v>0.000218829754123872</v>
+        <v>2.16436544358904E-006</v>
       </c>
       <c r="N10" s="7" t="n">
-        <v>0.000232343915343915</v>
+        <v>2.29802909303589E-006</v>
       </c>
       <c r="O10" s="7" t="n">
         <v>0</v>
@@ -4358,13 +4358,13 @@
         <v>0</v>
       </c>
       <c r="R10" s="7" t="n">
-        <v>0.00187522564581388</v>
+        <v>1.85471742770137E-005</v>
       </c>
       <c r="S10" s="7" t="n">
-        <v>0.00028162153750389</v>
+        <v>2.78541611667123E-006</v>
       </c>
       <c r="T10" s="7" t="n">
-        <v>0.000174260815437286</v>
+        <v>1.72355029421918E-006</v>
       </c>
       <c r="U10" s="7" t="n">
         <v>0</v>
@@ -4393,52 +4393,52 @@
         <v>17.202402</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>0.0505606120759415</v>
+        <v>0.000765630588880639</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>0.00156232291314659</v>
+        <v>2.36579851964117E-005</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>0.00654637182072829</v>
+        <v>9.91305743017447E-005</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>0.0026623268907563</v>
+        <v>4.03151548502006E-005</v>
       </c>
       <c r="I11" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.00141293252723312</v>
+        <v>2.1395792464879E-005</v>
       </c>
       <c r="K11" s="7" t="n">
-        <v>0.000174223803299097</v>
+        <v>2.63824086853538E-006</v>
       </c>
       <c r="L11" s="7" t="n">
-        <v>0.000239135944600062</v>
+        <v>3.62119417802288E-006</v>
       </c>
       <c r="M11" s="7" t="n">
-        <v>0.00058530174291939</v>
+        <v>8.86312288765723E-006</v>
       </c>
       <c r="N11" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O11" s="7" t="n">
-        <v>3.75038904450669E-006</v>
+        <v>5.67914915342466E-008</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>9.4926859632742E-007</v>
+        <v>1.43746098904109E-008</v>
       </c>
       <c r="Q11" s="7" t="n">
         <v>0</v>
       </c>
       <c r="R11" s="7" t="n">
-        <v>0.00836885703703704</v>
+        <v>0.000126728152181002</v>
       </c>
       <c r="S11" s="7" t="n">
-        <v>0.00153139531279178</v>
+        <v>2.3189653902543E-005</v>
       </c>
       <c r="T11" s="7" t="n">
-        <v>0.00173195567382509</v>
+        <v>2.62267047019559E-005</v>
       </c>
       <c r="U11" s="7" t="n">
         <v>0</v>
@@ -4467,37 +4467,37 @@
         <v>4.69740600000001</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>0.00505980462876477</v>
+        <v>2.09223135962865E-005</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>0.00206448276189995</v>
+        <v>8.53664497499444E-006</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>0.000587612822906941</v>
+        <v>2.42978151452055E-006</v>
       </c>
       <c r="H12" s="7" t="n">
-        <v>0.000377190292490202</v>
+        <v>1.55968345894051E-006</v>
       </c>
       <c r="I12" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.000530276065174762</v>
+        <v>2.19269377815872E-006</v>
       </c>
       <c r="K12" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L12" s="7" t="n">
-        <v>0.000189928550996834</v>
+        <v>7.85355363773033E-007</v>
       </c>
       <c r="M12" s="7" t="n">
-        <v>0.000177305656054986</v>
+        <v>7.33159639660502E-007</v>
       </c>
       <c r="N12" s="7" t="n">
-        <v>0.000190064373895206</v>
+        <v>7.8591699203377E-007</v>
       </c>
       <c r="O12" s="7" t="n">
-        <v>3.42359165888578E-007</v>
+        <v>1.41565660273973E-009</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>0</v>
@@ -4506,13 +4506,13 @@
         <v>0</v>
       </c>
       <c r="R12" s="7" t="n">
-        <v>0.00141780470823623</v>
+        <v>5.86262848082564E-006</v>
       </c>
       <c r="S12" s="7" t="n">
-        <v>0.000168052374125931</v>
+        <v>6.94897279644874E-007</v>
       </c>
       <c r="T12" s="7" t="n">
-        <v>0.000274416168875747</v>
+        <v>1.13471202197614E-006</v>
       </c>
       <c r="U12" s="7" t="n">
         <v>0</v>
@@ -4541,37 +4541,37 @@
         <v>15.387057</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>0.0274333173607221</v>
+        <v>0.000371579504549133</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>0.000839459511238095</v>
+        <v>1.13703328392035E-005</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>0.00466491655773421</v>
+        <v>6.31854821089819E-005</v>
       </c>
       <c r="H13" s="7" t="n">
-        <v>0.00126706801587302</v>
+        <v>1.71622155416846E-005</v>
       </c>
       <c r="I13" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>0.000819547875816994</v>
+        <v>1.11006332061898E-005</v>
       </c>
       <c r="K13" s="7" t="n">
-        <v>7.05484749455338E-005</v>
+        <v>9.55566803032397E-007</v>
       </c>
       <c r="L13" s="7" t="n">
-        <v>5.22082492997199E-005</v>
+        <v>7.07151641672874E-007</v>
       </c>
       <c r="M13" s="7" t="n">
-        <v>0.000322968638344227</v>
+        <v>4.3745539426697E-006</v>
       </c>
       <c r="N13" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O13" s="7" t="n">
-        <v>8.83909119203237E-007</v>
+        <v>1.19723950356165E-008</v>
       </c>
       <c r="P13" s="7" t="n">
         <v>0</v>
@@ -4580,13 +4580,13 @@
         <v>0</v>
       </c>
       <c r="R13" s="7" t="n">
-        <v>0.004241185113601</v>
+        <v>5.74461135155816E-005</v>
       </c>
       <c r="S13" s="7" t="n">
-        <v>0.000655797594148771</v>
+        <v>8.88266416759375E-006</v>
       </c>
       <c r="T13" s="7" t="n">
-        <v>0.00116179698568316</v>
+        <v>1.57363377768128E-005</v>
       </c>
       <c r="U13" s="7" t="n">
         <v>0</v>
@@ -4615,34 +4615,34 @@
         <v>11.8977390000001</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>0.00224590445609297</v>
+        <v>2.35219637056406E-005</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>0.000167769778784137</v>
+        <v>1.75709818677186E-006</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>0.000459532621275568</v>
+        <v>4.81280920471814E-006</v>
       </c>
       <c r="H14" s="7" t="n">
-        <v>0.000257499519693971</v>
+        <v>2.69686198806434E-006</v>
       </c>
       <c r="I14" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>0.000365436096638413</v>
+        <v>3.8273108985291E-006</v>
       </c>
       <c r="K14" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="7" t="n">
-        <v>2.91683630359071E-005</v>
+        <v>3.05488140789882E-007</v>
       </c>
       <c r="M14" s="7" t="n">
-        <v>0.00017306113788265</v>
+        <v>1.81251601914272E-006</v>
       </c>
       <c r="N14" s="7" t="n">
-        <v>0.00015885041545568</v>
+        <v>1.6636832866321E-006</v>
       </c>
       <c r="O14" s="7" t="n">
         <v>0</v>
@@ -4654,13 +4654,13 @@
         <v>0</v>
       </c>
       <c r="R14" s="7" t="n">
-        <v>0.000655807797597333</v>
+        <v>6.86845211563263E-006</v>
       </c>
       <c r="S14" s="7" t="n">
-        <v>7.41774192484102E-005</v>
+        <v>7.768801378018E-007</v>
       </c>
       <c r="T14" s="7" t="n">
-        <v>0.000231777157790726</v>
+        <v>2.42746474746933E-006</v>
       </c>
       <c r="U14" s="7" t="n">
         <v>0</v>
@@ -4689,34 +4689,34 @@
         <v>5.985819</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>0.00156223110935121</v>
+        <v>8.2316467194859E-006</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>0.000433520420285584</v>
+        <v>2.28428874838883E-006</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>0.000286502181754547</v>
+        <v>1.50962602808799E-006</v>
       </c>
       <c r="H15" s="7" t="n">
-        <v>0.000151188838291038</v>
+        <v>7.96638280528263E-007</v>
       </c>
       <c r="I15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>0.000213158232662582</v>
+        <v>1.12316497611999E-006</v>
       </c>
       <c r="K15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L15" s="7" t="n">
-        <v>8.03503593482366E-005</v>
+        <v>4.23378953331115E-007</v>
       </c>
       <c r="M15" s="7" t="n">
-        <v>3.95984855441422E-005</v>
+        <v>2.08650782637031E-007</v>
       </c>
       <c r="N15" s="7" t="n">
-        <v>6.77112217276408E-005</v>
+        <v>3.56781306472762E-007</v>
       </c>
       <c r="O15" s="7" t="n">
         <v>0</v>
@@ -4728,13 +4728,13 @@
         <v>0</v>
       </c>
       <c r="R15" s="7" t="n">
-        <v>0.000436601324815889</v>
+        <v>2.3005225293692E-006</v>
       </c>
       <c r="S15" s="7" t="n">
-        <v>5.77684407096172E-005</v>
+        <v>3.04391195778082E-007</v>
       </c>
       <c r="T15" s="7" t="n">
-        <v>8.08506608942798E-005</v>
+        <v>4.26015122560874E-007</v>
       </c>
       <c r="U15" s="7" t="n">
         <v>0</v>
@@ -4763,52 +4763,52 @@
         <v>14.23359</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>0.00210556204565943</v>
+        <v>2.63815529307769E-005</v>
       </c>
       <c r="F16" s="7" t="n">
-        <v>7.98091699954034E-005</v>
+        <v>9.99965708412882E-007</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>0.00119302984848146</v>
+        <v>1.49480183500616E-005</v>
       </c>
       <c r="H16" s="7" t="n">
-        <v>0.00083840176521184</v>
+        <v>1.0504720386554E-005</v>
       </c>
       <c r="I16" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J16" s="7" t="n">
-        <v>9.48066156097152E-005</v>
+        <v>1.18787558554809E-006</v>
       </c>
       <c r="K16" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L16" s="7" t="n">
-        <v>2.08225851054122E-005</v>
+        <v>2.60895722472998E-007</v>
       </c>
       <c r="M16" s="7" t="n">
-        <v>8.34812860513831E-005</v>
+        <v>1.0459753352954E-006</v>
       </c>
       <c r="N16" s="7" t="n">
-        <v>3.13766683305655E-005</v>
+        <v>3.93132673558904E-007</v>
       </c>
       <c r="O16" s="7" t="n">
-        <v>3.42359165888578E-006</v>
+        <v>4.28957506849315E-008</v>
       </c>
       <c r="P16" s="7" t="n">
-        <v>2.99097416744476E-006</v>
+        <v>3.74752876438356E-008</v>
       </c>
       <c r="Q16" s="7" t="n">
         <v>0</v>
       </c>
       <c r="R16" s="7" t="n">
-        <v>0.000262173356016344</v>
+        <v>3.28489026625595E-006</v>
       </c>
       <c r="S16" s="7" t="n">
         <v>0</v>
       </c>
       <c r="T16" s="7" t="n">
-        <v>0.000222511801455508</v>
+        <v>2.78795245189869E-006</v>
       </c>
       <c r="U16" s="7" t="n">
         <v>0</v>
@@ -4837,52 +4837,52 @@
         <v>36.483615</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>0.0165151145707267</v>
+        <v>0.000530392428886449</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>0.000320020071129387</v>
+        <v>1.02776291434024E-005</v>
       </c>
       <c r="G17" s="7" t="n">
-        <v>0.00422446130825148</v>
+        <v>0.000135671011207628</v>
       </c>
       <c r="H17" s="7" t="n">
-        <v>0.00305947203924669</v>
+        <v>9.82567089714608E-005</v>
       </c>
       <c r="I17" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>0.00264358120429342</v>
+        <v>8.49001349581345E-005</v>
       </c>
       <c r="K17" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="7" t="n">
-        <v>7.3029735943394E-005</v>
+        <v>2.34539208687114E-006</v>
       </c>
       <c r="M17" s="7" t="n">
-        <v>0.000515789209177849</v>
+        <v>1.65648679140361E-005</v>
       </c>
       <c r="N17" s="7" t="n">
-        <v>0.000201666248740498</v>
+        <v>6.4766278814368E-006</v>
       </c>
       <c r="O17" s="7" t="n">
-        <v>4.69965764083411E-006</v>
+        <v>1.50932215479452E-007</v>
       </c>
       <c r="P17" s="7" t="n">
-        <v>2.52100840336135E-007</v>
+        <v>8.09636387671233E-009</v>
       </c>
       <c r="Q17" s="7" t="n">
-        <v>1.02707749766573E-006</v>
+        <v>3.29851861643836E-008</v>
       </c>
       <c r="R17" s="7" t="n">
-        <v>0.00700178837810881</v>
+        <v>0.000224866471771054</v>
       </c>
       <c r="S17" s="7" t="n">
         <v>0</v>
       </c>
       <c r="T17" s="7" t="n">
-        <v>0.00101395734163145</v>
+        <v>3.25638247868049E-005</v>
       </c>
       <c r="U17" s="7" t="n">
         <v>0</v>
@@ -4911,52 +4911,52 @@
         <v>26.401221</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>0.00745452641105117</v>
+        <v>0.000173245487485251</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>0.000146146789403241</v>
+        <v>3.39649635381712E-006</v>
       </c>
       <c r="G18" s="7" t="n">
-        <v>0.00179626303367946</v>
+        <v>4.17457055970981E-005</v>
       </c>
       <c r="H18" s="7" t="n">
-        <v>0.000972678941900539</v>
+        <v>2.26053578945513E-005</v>
       </c>
       <c r="I18" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>0.000167124815261529</v>
+        <v>3.88403212951838E-006</v>
       </c>
       <c r="K18" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="7" t="n">
-        <v>3.00276791170936E-005</v>
+        <v>6.97852501934863E-007</v>
       </c>
       <c r="M18" s="7" t="n">
-        <v>0.000165024537110716</v>
+        <v>3.83522101905633E-006</v>
       </c>
       <c r="N18" s="7" t="n">
-        <v>5.12371676096894E-005</v>
+        <v>1.19076754047645E-006</v>
       </c>
       <c r="O18" s="7" t="n">
-        <v>4.04606286959228E-006</v>
+        <v>9.40317460273973E-008</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>2.9567382508559E-006</v>
+        <v>6.87155067123288E-008</v>
       </c>
       <c r="Q18" s="7" t="n">
         <v>0</v>
       </c>
       <c r="R18" s="7" t="n">
-        <v>0.000984515273400318</v>
+        <v>2.28804378805416E-005</v>
       </c>
       <c r="S18" s="7" t="n">
         <v>0</v>
       </c>
       <c r="T18" s="7" t="n">
-        <v>0.000590212465487451</v>
+        <v>1.37167193011295E-005</v>
       </c>
       <c r="U18" s="7" t="n">
         <v>0</v>
@@ -4985,13 +4985,13 @@
         <v>0.41498606132475</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>2.61924369747899E-008</v>
+        <v>9.56813465004496E-012</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>3.19265483971366E-008</v>
+        <v>1.16628137453953E-011</v>
       </c>
       <c r="G19" s="7" t="n">
-        <v>3.73482726423903E-007</v>
+        <v>1.36433773586219E-010</v>
       </c>
       <c r="H19" s="7" t="n">
         <v>0</v>
@@ -5000,19 +5000,19 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="n">
-        <v>2.78244631185808E-006</v>
+        <v>1.01643161321733E-009</v>
       </c>
       <c r="K19" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L19" s="7" t="n">
-        <v>1.59446000622471E-006</v>
+        <v>5.82458518401833E-010</v>
       </c>
       <c r="M19" s="7" t="n">
-        <v>8.45004668534081E-007</v>
+        <v>3.08681412738822E-010</v>
       </c>
       <c r="N19" s="7" t="n">
-        <v>2.52287581699346E-006</v>
+        <v>9.2161014057491E-010</v>
       </c>
       <c r="O19" s="7" t="n">
         <v>0</v>
@@ -5024,16 +5024,16 @@
         <v>0</v>
       </c>
       <c r="R19" s="7" t="n">
-        <v>2.90071584189231E-006</v>
+        <v>1.05963564151964E-009</v>
       </c>
       <c r="S19" s="7" t="n">
-        <v>1.40553999377529E-007</v>
+        <v>5.13445767929471E-011</v>
       </c>
       <c r="T19" s="7" t="n">
-        <v>7.23965141612201E-008</v>
+        <v>2.64465500615754E-011</v>
       </c>
       <c r="U19" s="7" t="n">
-        <v>4.66853408029879E-008</v>
+        <v>1.70542216982774E-011</v>
       </c>
       <c r="V19" s="7" t="n">
         <v>1.13367402116402E-005</v>
@@ -5059,13 +5059,13 @@
         <v>0.401125568685692</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>3.93451602863368E-008</v>
+        <v>1.38927917509508E-011</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>4.09430438842204E-008</v>
+        <v>1.44570050850967E-011</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>4.19483348895114E-008</v>
+        <v>1.48119737390295E-011</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>0</v>
@@ -5074,19 +5074,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="n">
-        <v>6.22471210706505E-007</v>
+        <v>2.19794832156544E-010</v>
       </c>
       <c r="K20" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="7" t="n">
-        <v>5.95238095238095E-007</v>
+        <v>2.10178808249695E-010</v>
       </c>
       <c r="M20" s="7" t="n">
-        <v>3.54808590102708E-007</v>
+        <v>1.2528305432923E-010</v>
       </c>
       <c r="N20" s="7" t="n">
-        <v>5.43230625583567E-007</v>
+        <v>1.91814950023016E-010</v>
       </c>
       <c r="O20" s="7" t="n">
         <v>0</v>
@@ -5098,13 +5098,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="7" t="n">
-        <v>8.85605353252412E-007</v>
+        <v>3.12707602579918E-010</v>
       </c>
       <c r="S20" s="7" t="n">
-        <v>1.10830999066293E-007</v>
+        <v>3.91344698654726E-011</v>
       </c>
       <c r="T20" s="7" t="n">
-        <v>7.59414877061936E-008</v>
+        <v>2.68149695230983E-011</v>
       </c>
       <c r="U20" s="7" t="n">
         <v>0</v>
@@ -5133,13 +5133,13 @@
         <v>0.0578609307582545</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>3.79707438530968E-008</v>
+        <v>1.93398179520741E-012</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>5.74354186118892E-008</v>
+        <v>2.92538524989816E-012</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>7.36383442265795E-008</v>
+        <v>3.75065649791863E-012</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>0</v>
@@ -5148,19 +5148,19 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="n">
-        <v>3.31355119825708E-006</v>
+        <v>1.68770665112853E-010</v>
       </c>
       <c r="K21" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L21" s="7" t="n">
-        <v>2.62231559290383E-006</v>
+        <v>1.33563636192787E-010</v>
       </c>
       <c r="M21" s="7" t="n">
-        <v>1.10348583877996E-006</v>
+        <v>5.62043643844907E-011</v>
       </c>
       <c r="N21" s="7" t="n">
-        <v>1.91534391534392E-006</v>
+        <v>9.7555114489397E-011</v>
       </c>
       <c r="O21" s="7" t="n">
         <v>0</v>
@@ -5169,16 +5169,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="7" t="n">
-        <v>1.10345471521942E-007</v>
+        <v>5.62027791535112E-012</v>
       </c>
       <c r="R21" s="7" t="n">
-        <v>3.50284326174914E-006</v>
+        <v>1.7841196701063E-010</v>
       </c>
       <c r="S21" s="7" t="n">
-        <v>1.72860255213196E-007</v>
+        <v>8.80437286113277E-012</v>
       </c>
       <c r="T21" s="7" t="n">
-        <v>4.62309368191721E-008</v>
+        <v>2.35470209721401E-012</v>
       </c>
       <c r="U21" s="7" t="n">
         <v>0</v>
@@ -5207,13 +5207,13 @@
         <v>0.828003251162317</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>3.79707438530968E-008</v>
+        <v>2.76757251073433E-011</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>5.91487706193589E-008</v>
+        <v>4.31117473608611E-011</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>2.65795206971678E-008</v>
+        <v>1.93730075751402E-011</v>
       </c>
       <c r="H22" s="7" t="n">
         <v>0</v>
@@ -5222,19 +5222,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="n">
-        <v>3.46887643946468E-006</v>
+        <v>2.52835896872044E-009</v>
       </c>
       <c r="K22" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L22" s="7" t="n">
-        <v>2.57871148459384E-006</v>
+        <v>1.87954469511788E-009</v>
       </c>
       <c r="M22" s="7" t="n">
-        <v>1.29318394024276E-006</v>
+        <v>9.42562605090255E-010</v>
       </c>
       <c r="N22" s="7" t="n">
-        <v>2.44351073762839E-006</v>
+        <v>1.78100096571927E-009</v>
       </c>
       <c r="O22" s="7" t="n">
         <v>0</v>
@@ -5246,13 +5246,13 @@
         <v>0</v>
       </c>
       <c r="R22" s="7" t="n">
-        <v>4.19696234049175E-006</v>
+        <v>3.0590387291517E-009</v>
       </c>
       <c r="S22" s="7" t="n">
-        <v>3.46125116713352E-007</v>
+        <v>2.52280113867839E-010</v>
       </c>
       <c r="T22" s="7" t="n">
-        <v>9.16588857765329E-007</v>
+        <v>6.68073856074803E-010</v>
       </c>
       <c r="U22" s="7" t="n">
         <v>0</v>
@@ -5281,13 +5281,13 @@
         <v>0.396675343181752</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>1.13289760348584E-006</v>
+        <v>3.95588561419611E-010</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>1.84873949579832E-006</v>
+        <v>6.45548366712219E-010</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>3.31607220666044E-006</v>
+        <v>1.15791597560101E-009</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0</v>
@@ -5296,19 +5296,19 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="n">
-        <v>5.0812324929972E-005</v>
+        <v>1.77427990487268E-008</v>
       </c>
       <c r="K23" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L23" s="7" t="n">
-        <v>3.88261749144102E-005</v>
+        <v>1.35574394654544E-008</v>
       </c>
       <c r="M23" s="7" t="n">
-        <v>1.65533302209773E-005</v>
+        <v>5.78014117840088E-009</v>
       </c>
       <c r="N23" s="7" t="n">
-        <v>4.24525365701836E-005</v>
+        <v>1.48237032356139E-008</v>
       </c>
       <c r="O23" s="7" t="n">
         <v>0</v>
@@ -5317,19 +5317,19 @@
         <v>0</v>
       </c>
       <c r="Q23" s="7" t="n">
-        <v>3.42359165888578E-007</v>
+        <v>1.19545993835596E-010</v>
       </c>
       <c r="R23" s="7" t="n">
-        <v>5.37317149081855E-005</v>
+        <v>1.87622003416158E-008</v>
       </c>
       <c r="S23" s="7" t="n">
-        <v>2.39651416122004E-006</v>
+        <v>8.36821956849175E-010</v>
       </c>
       <c r="T23" s="7" t="n">
-        <v>5.6504824151883E-006</v>
+        <v>1.97305228916841E-009</v>
       </c>
       <c r="U23" s="7" t="n">
-        <v>6.84718331777155E-007</v>
+        <v>2.39091987671193E-010</v>
       </c>
       <c r="V23" s="7" t="n">
         <v>0.000217747864923747</v>
@@ -5355,52 +5355,52 @@
         <v>0.0405506467728818</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>4.30905695611578E-007</v>
+        <v>1.53814713580972E-011</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>8.14049175225646E-007</v>
+        <v>2.90580379891351E-011</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>1.69747899159664E-006</v>
+        <v>6.05926650683006E-011</v>
       </c>
       <c r="H24" s="7" t="n">
-        <v>2.22580143168378E-007</v>
+        <v>7.94514932592504E-012</v>
       </c>
       <c r="I24" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J24" s="7" t="n">
-        <v>2.57205104263928E-005</v>
+        <v>9.18111082003E-010</v>
       </c>
       <c r="K24" s="7" t="n">
-        <v>2.95487083722378E-006</v>
+        <v>1.05476120674449E-010</v>
       </c>
       <c r="L24" s="7" t="n">
-        <v>1.67614628073452E-005</v>
+        <v>5.98311794707373E-010</v>
       </c>
       <c r="M24" s="7" t="n">
-        <v>1.02240896358543E-005</v>
+        <v>3.64955820955937E-010</v>
       </c>
       <c r="N24" s="7" t="n">
-        <v>1.45969498910675E-005</v>
+        <v>5.21048036615934E-010</v>
       </c>
       <c r="O24" s="7" t="n">
-        <v>2.05508870214753E-007</v>
+        <v>7.33577864770792E-012</v>
       </c>
       <c r="P24" s="7" t="n">
-        <v>9.64830376595083E-008</v>
+        <v>3.44402753413518E-012</v>
       </c>
       <c r="Q24" s="7" t="n">
-        <v>3.80952380952381E-008</v>
+        <v>1.35983538767143E-012</v>
       </c>
       <c r="R24" s="7" t="n">
-        <v>2.25210084033613E-005</v>
+        <v>8.03902685064583E-010</v>
       </c>
       <c r="S24" s="7" t="n">
-        <v>9.54870837223779E-007</v>
+        <v>3.40847628216989E-011</v>
       </c>
       <c r="T24" s="7" t="n">
-        <v>1.51090818549642E-006</v>
+        <v>5.39328934767123E-011</v>
       </c>
       <c r="U24" s="7" t="n">
         <v>0</v>
@@ -5429,34 +5429,34 @@
         <v>0.746362934128313</v>
       </c>
       <c r="E25" s="7" t="n">
-        <v>2.34827264239029E-006</v>
+        <v>1.54282420219127E-009</v>
       </c>
       <c r="F25" s="7" t="n">
-        <v>2.62994086523498E-006</v>
+        <v>1.72788131325596E-009</v>
       </c>
       <c r="G25" s="7" t="n">
-        <v>3.73482726423903E-006</v>
+        <v>2.45379594781911E-009</v>
       </c>
       <c r="H25" s="7" t="n">
-        <v>2.94117647058824E-006</v>
+        <v>1.93236430890755E-009</v>
       </c>
       <c r="I25" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="7" t="n">
-        <v>8.18549642079054E-005</v>
+        <v>5.37790278563688E-008</v>
       </c>
       <c r="K25" s="7" t="n">
-        <v>6.36476812947401E-006</v>
+        <v>4.18167726107507E-009</v>
       </c>
       <c r="L25" s="7" t="n">
-        <v>2.59912854030501E-005</v>
+        <v>1.70763749668645E-008</v>
       </c>
       <c r="M25" s="7" t="n">
-        <v>2.58325552443199E-005</v>
+        <v>1.69720886390822E-008</v>
       </c>
       <c r="N25" s="7" t="n">
-        <v>3.42359165888578E-005</v>
+        <v>2.24931295216752E-008</v>
       </c>
       <c r="O25" s="7" t="n">
         <v>0</v>
@@ -5468,13 +5468,13 @@
         <v>0</v>
       </c>
       <c r="R25" s="7" t="n">
-        <v>7.92094615624028E-005</v>
+        <v>5.20409223933304E-008</v>
       </c>
       <c r="S25" s="7" t="n">
-        <v>6.84718331777155E-007</v>
+        <v>4.49862590433504E-010</v>
       </c>
       <c r="T25" s="7" t="n">
-        <v>1.22626828509181E-005</v>
+        <v>8.05663002867274E-009</v>
       </c>
       <c r="U25" s="7" t="n">
         <v>0</v>
@@ -5503,13 +5503,13 @@
         <v>0.599823204592345</v>
       </c>
       <c r="E26" s="7" t="n">
-        <v>1.59352629940865E-006</v>
+        <v>8.4139583767474E-010</v>
       </c>
       <c r="F26" s="7" t="n">
-        <v>1.41176470588235E-006</v>
+        <v>7.45424124939967E-010</v>
       </c>
       <c r="G26" s="7" t="n">
-        <v>1.05820105820106E-006</v>
+        <v>5.58739423455882E-010</v>
       </c>
       <c r="H26" s="7" t="n">
         <v>0</v>
@@ -5518,19 +5518,19 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="n">
-        <v>6.07563025210084E-005</v>
+        <v>3.20798596625951E-008</v>
       </c>
       <c r="K26" s="7" t="n">
-        <v>2.97074385309679E-006</v>
+        <v>1.56857876379012E-009</v>
       </c>
       <c r="L26" s="7" t="n">
-        <v>2.10924369747899E-005</v>
+        <v>1.11369913904721E-008</v>
       </c>
       <c r="M26" s="7" t="n">
-        <v>1.50638032990974E-005</v>
+        <v>7.95382002801904E-009</v>
       </c>
       <c r="N26" s="7" t="n">
-        <v>2.64083411142235E-005</v>
+        <v>1.39438353177152E-008</v>
       </c>
       <c r="O26" s="7" t="n">
         <v>0</v>
@@ -5542,13 +5542,13 @@
         <v>0</v>
       </c>
       <c r="R26" s="7" t="n">
-        <v>9.71521942110177E-005</v>
+        <v>5.12972091269863E-008</v>
       </c>
       <c r="S26" s="7" t="n">
-        <v>7.62527233115469E-007</v>
+        <v>4.02621055137326E-010</v>
       </c>
       <c r="T26" s="7" t="n">
-        <v>2.53831310301899E-006</v>
+        <v>1.34025154174612E-009</v>
       </c>
       <c r="U26" s="7" t="n">
         <v>0</v>
@@ -5577,34 +5577,34 @@
         <v>0.922131</v>
       </c>
       <c r="E27" s="7" t="n">
-        <v>5.17745147028746E-006</v>
+        <v>4.20268190578499E-009</v>
       </c>
       <c r="F27" s="7" t="n">
-        <v>6.48612135421475E-006</v>
+        <v>5.26496578683923E-009</v>
       </c>
       <c r="G27" s="7" t="n">
-        <v>4.64160879028484E-006</v>
+        <v>3.76772344243326E-009</v>
       </c>
       <c r="H27" s="7" t="n">
-        <v>2.30856172942508E-005</v>
+        <v>1.87392400765541E-008</v>
       </c>
       <c r="I27" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="7" t="n">
-        <v>3.00706543973752E-005</v>
+        <v>2.44091897058276E-008</v>
       </c>
       <c r="K27" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L27" s="7" t="n">
-        <v>2.45772743640935E-005</v>
+        <v>1.99500597651675E-008</v>
       </c>
       <c r="M27" s="7" t="n">
-        <v>2.61010882237951E-005</v>
+        <v>2.11869820178828E-008</v>
       </c>
       <c r="N27" s="7" t="n">
-        <v>1.84233532011256E-005</v>
+        <v>1.49547501481375E-008</v>
       </c>
       <c r="O27" s="7" t="n">
         <v>0</v>
@@ -5616,13 +5616,13 @@
         <v>0</v>
       </c>
       <c r="R27" s="7" t="n">
-        <v>6.9426305379502E-005</v>
+        <v>5.63552703638836E-008</v>
       </c>
       <c r="S27" s="7" t="n">
-        <v>6.5359477124183E-007</v>
+        <v>5.30541123287671E-010</v>
       </c>
       <c r="T27" s="7" t="n">
-        <v>3.57466768708746E-006</v>
+        <v>2.90165756143392E-009</v>
       </c>
       <c r="U27" s="7" t="n">
         <v>0</v>
@@ -5651,10 +5651,10 @@
         <v>0.218484</v>
       </c>
       <c r="E28" s="7" t="n">
-        <v>1.49393090569561E-006</v>
+        <v>2.87321424657534E-010</v>
       </c>
       <c r="F28" s="7" t="n">
-        <v>2.31901649548708E-006</v>
+        <v>4.46006653150685E-010</v>
       </c>
       <c r="G28" s="7" t="n">
         <v>0</v>
@@ -5666,19 +5666,19 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="n">
-        <v>6.36057157124385E-006</v>
+        <v>1.22330187997219E-009</v>
       </c>
       <c r="K28" s="7" t="n">
-        <v>4.07915290844342E-006</v>
+        <v>7.8452625926777E-010</v>
       </c>
       <c r="L28" s="7" t="n">
-        <v>3.97469230589913E-006</v>
+        <v>7.64435792547266E-010</v>
       </c>
       <c r="M28" s="7" t="n">
-        <v>5.96657314288478E-006</v>
+        <v>1.14752582545898E-009</v>
       </c>
       <c r="N28" s="7" t="n">
-        <v>4.2123727710357E-006</v>
+        <v>8.1014787306983E-010</v>
       </c>
       <c r="O28" s="7" t="n">
         <v>0</v>
@@ -5687,19 +5687,19 @@
         <v>0</v>
       </c>
       <c r="Q28" s="7" t="n">
-        <v>1.55674146631584E-006</v>
+        <v>2.99401514635016E-010</v>
       </c>
       <c r="R28" s="7" t="n">
-        <v>1.21986533470456E-005</v>
+        <v>2.34611550320967E-009</v>
       </c>
       <c r="S28" s="7" t="n">
-        <v>1.89420954599908E-006</v>
+        <v>3.64305325822912E-010</v>
       </c>
       <c r="T28" s="7" t="n">
-        <v>1.23250812735857E-006</v>
+        <v>2.3704308526221E-010</v>
       </c>
       <c r="U28" s="7" t="n">
-        <v>1.00114410656884E-005</v>
+        <v>1.92545819816825E-009</v>
       </c>
       <c r="V28" s="7" t="n">
         <v>5.52998636530971E-005</v>
@@ -5725,13 +5725,13 @@
         <v>0.732564</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>4.66853408029879E-006</v>
+        <v>3.01053698630137E-009</v>
       </c>
       <c r="F29" s="7" t="n">
-        <v>3.73482726423903E-006</v>
+        <v>2.40842958904109E-009</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>5.63800356597753E-006</v>
+        <v>3.63570619220756E-009</v>
       </c>
       <c r="H29" s="7" t="n">
         <v>0</v>
@@ -5740,19 +5740,19 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="n">
-        <v>0.000101643733183537</v>
+        <v>6.55456751330392E-008</v>
       </c>
       <c r="K29" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L29" s="7" t="n">
-        <v>3.25298831840803E-005</v>
+        <v>2.09771236112448E-008</v>
       </c>
       <c r="M29" s="7" t="n">
-        <v>7.59323499004149E-005</v>
+        <v>4.89655090656093E-008</v>
       </c>
       <c r="N29" s="7" t="n">
-        <v>3.49077101163698E-005</v>
+        <v>2.25104820067398E-008</v>
       </c>
       <c r="O29" s="7" t="n">
         <v>0</v>
@@ -5764,13 +5764,13 @@
         <v>0</v>
       </c>
       <c r="R29" s="7" t="n">
-        <v>0.000105609190817735</v>
+        <v>6.81028283357419E-008</v>
       </c>
       <c r="S29" s="7" t="n">
-        <v>6.69156551509493E-007</v>
+        <v>4.31510301369863E-010</v>
       </c>
       <c r="T29" s="7" t="n">
-        <v>9.89305714004376E-006</v>
+        <v>6.37960737041216E-009</v>
       </c>
       <c r="U29" s="7" t="n">
         <v>0</v>
@@ -5799,13 +5799,13 @@
         <v>0.157437</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>5.43578916325201E-008</v>
+        <v>7.53333482077847E-012</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>1.07500778089013E-007</v>
+        <v>1.48982848767124E-011</v>
       </c>
       <c r="G30" s="7" t="n">
-        <v>6.73336105818674E-008</v>
+        <v>9.33160978049512E-012</v>
       </c>
       <c r="H30" s="7" t="n">
         <v>0</v>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="n">
-        <v>1.14471542528254E-006</v>
+        <v>1.58643470417533E-010</v>
       </c>
       <c r="K30" s="7" t="n">
         <v>0</v>
@@ -5823,25 +5823,25 @@
         <v>0</v>
       </c>
       <c r="M30" s="7" t="n">
-        <v>7.32906992688008E-007</v>
+        <v>1.01571889611434E-010</v>
       </c>
       <c r="N30" s="7" t="n">
-        <v>6.22471210706505E-006</v>
+        <v>8.62668493150688E-010</v>
       </c>
       <c r="O30" s="7" t="n">
         <v>0</v>
       </c>
       <c r="P30" s="7" t="n">
-        <v>2.87924058512294E-008</v>
+        <v>3.99027311506849E-012</v>
       </c>
       <c r="Q30" s="7" t="n">
         <v>0</v>
       </c>
       <c r="R30" s="7" t="n">
-        <v>8.54785148173673E-007</v>
+        <v>1.18462702059044E-010</v>
       </c>
       <c r="S30" s="7" t="n">
-        <v>1.01151571739807E-006</v>
+        <v>1.40183630136987E-010</v>
       </c>
       <c r="T30" s="7" t="n">
         <v>0</v>
@@ -5873,34 +5873,34 @@
         <v>0.883575</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>2.7077497665733E-006</v>
+        <v>2.10605547945205E-009</v>
       </c>
       <c r="F31" s="7" t="n">
-        <v>4.30870851457485E-006</v>
+        <v>3.35126210276288E-009</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>3.73482726423903E-006</v>
+        <v>2.90490410958904E-009</v>
       </c>
       <c r="H31" s="7" t="n">
-        <v>8.09212573918457E-006</v>
+        <v>6.29395890410959E-009</v>
       </c>
       <c r="I31" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J31" s="7" t="n">
-        <v>0.000127747904918874</v>
+        <v>9.93607970958836E-008</v>
       </c>
       <c r="K31" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L31" s="7" t="n">
-        <v>2.74836792796904E-005</v>
+        <v>2.137647801028E-008</v>
       </c>
       <c r="M31" s="7" t="n">
-        <v>2.94159586293666E-005</v>
+        <v>2.28793818466887E-008</v>
       </c>
       <c r="N31" s="7" t="n">
-        <v>5.20088039842811E-005</v>
+        <v>4.04518275517975E-008</v>
       </c>
       <c r="O31" s="7" t="n">
         <v>0</v>
@@ -5912,13 +5912,13 @@
         <v>0</v>
       </c>
       <c r="R31" s="7" t="n">
-        <v>0.000315793879371354</v>
+        <v>2.45620713641176E-007</v>
       </c>
       <c r="S31" s="7" t="n">
-        <v>5.60224089635855E-007</v>
+        <v>4.35735616438356E-010</v>
       </c>
       <c r="T31" s="7" t="n">
-        <v>8.20803043593492E-005</v>
+        <v>6.38410819511819E-008</v>
       </c>
       <c r="U31" s="7" t="n">
         <v>0</v>
@@ -5947,13 +5947,13 @@
         <v>0.70686</v>
       </c>
       <c r="E32" s="7" t="n">
-        <v>1.08932461873638E-006</v>
+        <v>6.7781095890411E-010</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>2.33426704014939E-006</v>
+        <v>1.45245205479452E-009</v>
       </c>
       <c r="G32" s="7" t="n">
-        <v>1.33813751713905E-006</v>
+        <v>8.32629923199299E-010</v>
       </c>
       <c r="H32" s="7" t="n">
         <v>0</v>
@@ -5962,37 +5962,37 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="n">
-        <v>2.11368205773293E-005</v>
+        <v>1.31519735965599E-008</v>
       </c>
       <c r="K32" s="7" t="n">
-        <v>5.20903175860545E-006</v>
+        <v>3.24121822873879E-009</v>
       </c>
       <c r="L32" s="7" t="n">
-        <v>7.61202899017022E-006</v>
+        <v>4.73643630217244E-009</v>
       </c>
       <c r="M32" s="7" t="n">
-        <v>1.44149833505219E-005</v>
+        <v>8.9694417250369E-009</v>
       </c>
       <c r="N32" s="7" t="n">
-        <v>6.70338977859048E-006</v>
+        <v>4.17105330732819E-009</v>
       </c>
       <c r="O32" s="7" t="n">
-        <v>3.16279927919499E-006</v>
+        <v>1.96799005124768E-009</v>
       </c>
       <c r="P32" s="7" t="n">
-        <v>6.69156551509493E-007</v>
+        <v>4.16369589041096E-010</v>
       </c>
       <c r="Q32" s="7" t="n">
         <v>0</v>
       </c>
       <c r="R32" s="7" t="n">
-        <v>2.09850258359694E-005</v>
+        <v>1.30575222847764E-008</v>
       </c>
       <c r="S32" s="7" t="n">
-        <v>2.56128463779539E-006</v>
+        <v>1.59370931906808E-009</v>
       </c>
       <c r="T32" s="7" t="n">
-        <v>2.08125945695288E-006</v>
+        <v>1.29502302984935E-009</v>
       </c>
       <c r="U32" s="7" t="n">
         <v>0</v>
@@ -6021,52 +6021,52 @@
         <v>0.890001</v>
       </c>
       <c r="E33" s="7" t="n">
-        <v>6.4021164021164E-007</v>
+        <v>5.01570426575343E-010</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>6.33364456893869E-007</v>
+        <v>4.96206036986301E-010</v>
       </c>
       <c r="G33" s="7" t="n">
-        <v>3.7002854652826E-008</v>
+        <v>2.89896909506175E-011</v>
       </c>
       <c r="H33" s="7" t="n">
-        <v>1.42157955551953E-007</v>
+        <v>1.11372899098962E-010</v>
       </c>
       <c r="I33" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J33" s="7" t="n">
-        <v>1.90530184728778E-005</v>
+        <v>1.49269866443385E-008</v>
       </c>
       <c r="K33" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L33" s="7" t="n">
-        <v>1.22818442395528E-005</v>
+        <v>9.62214597086674E-009</v>
       </c>
       <c r="M33" s="7" t="n">
-        <v>1.91227588219025E-005</v>
+        <v>1.49816243522662E-008</v>
       </c>
       <c r="N33" s="7" t="n">
-        <v>1.24641160460115E-005</v>
+        <v>9.7649458544926E-009</v>
       </c>
       <c r="O33" s="7" t="n">
-        <v>8.77176710734295E-006</v>
+        <v>6.87219458926915E-009</v>
       </c>
       <c r="P33" s="7" t="n">
-        <v>1.72891378773732E-006</v>
+        <v>1.35450837123288E-009</v>
       </c>
       <c r="Q33" s="7" t="n">
         <v>0</v>
       </c>
       <c r="R33" s="7" t="n">
-        <v>3.62162832775742E-005</v>
+        <v>2.83734557630058E-008</v>
       </c>
       <c r="S33" s="7" t="n">
-        <v>2.90727335265045E-006</v>
+        <v>2.27768794578299E-009</v>
       </c>
       <c r="T33" s="7" t="n">
-        <v>2.32490215454466E-006</v>
+        <v>1.82143230794025E-009</v>
       </c>
       <c r="U33" s="7" t="n">
         <v>0</v>
@@ -6095,13 +6095,13 @@
         <v>1.08785136784163</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>2.31901649548708E-006</v>
+        <v>2.22070699775014E-009</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>4.66624058512294E-006</v>
+        <v>4.468425792026E-009</v>
       </c>
       <c r="G34" s="7" t="n">
-        <v>4.28512857658453E-006</v>
+        <v>4.10347017142784E-009</v>
       </c>
       <c r="H34" s="7" t="n">
         <v>0</v>
@@ -6110,19 +6110,19 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="n">
-        <v>2.51641076309119E-005</v>
+        <v>2.40973317856311E-008</v>
       </c>
       <c r="K34" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L34" s="7" t="n">
-        <v>1.66710556463604E-005</v>
+        <v>1.59643236716082E-008</v>
       </c>
       <c r="M34" s="7" t="n">
-        <v>1.36374865974244E-005</v>
+        <v>1.30593559716198E-008</v>
       </c>
       <c r="N34" s="7" t="n">
-        <v>1.99970814928944E-005</v>
+        <v>1.91493501198761E-008</v>
       </c>
       <c r="O34" s="7" t="n">
         <v>0</v>
@@ -6134,13 +6134,13 @@
         <v>0</v>
       </c>
       <c r="R34" s="7" t="n">
-        <v>2.73649714883972E-005</v>
+        <v>2.62048949611946E-008</v>
       </c>
       <c r="S34" s="7" t="n">
-        <v>9.35261993326272E-006</v>
+        <v>8.9561366094257E-009</v>
       </c>
       <c r="T34" s="7" t="n">
-        <v>1.17490321931952E-005</v>
+        <v>1.12509583519543E-008</v>
       </c>
       <c r="U34" s="7" t="n">
         <v>0</v>
@@ -6169,52 +6169,52 @@
         <v>0.343791</v>
       </c>
       <c r="E35" s="7" t="n">
-        <v>7.97665953329135E-007</v>
+        <v>2.41397862279457E-010</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>1.97021821176326E-007</v>
+        <v>5.96247668035367E-011</v>
       </c>
       <c r="G35" s="7" t="n">
-        <v>2.30428385021946E-006</v>
+        <v>6.97346042170279E-010</v>
       </c>
       <c r="H35" s="7" t="n">
-        <v>1.22586669659216E-006</v>
+        <v>3.70984368534058E-010</v>
       </c>
       <c r="I35" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J35" s="7" t="n">
-        <v>2.9363441356366E-006</v>
+        <v>8.88626616569425E-010</v>
       </c>
       <c r="K35" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L35" s="7" t="n">
-        <v>3.93165786341986E-006</v>
+        <v>1.18983867806146E-009</v>
       </c>
       <c r="M35" s="7" t="n">
-        <v>2.03532045569305E-006</v>
+        <v>6.15949577648855E-010</v>
       </c>
       <c r="N35" s="7" t="n">
-        <v>2.69424184262521E-006</v>
+        <v>8.15359134433592E-010</v>
       </c>
       <c r="O35" s="7" t="n">
-        <v>9.82591069060859E-008</v>
+        <v>2.97361799856468E-011</v>
       </c>
       <c r="P35" s="7" t="n">
-        <v>1.81792717086835E-008</v>
+        <v>5.50159789315069E-012</v>
       </c>
       <c r="Q35" s="7" t="n">
-        <v>1.70333022097728E-007</v>
+        <v>5.15479283506849E-011</v>
       </c>
       <c r="R35" s="7" t="n">
-        <v>7.3121986349465E-006</v>
+        <v>2.21289264217914E-009</v>
       </c>
       <c r="S35" s="7" t="n">
-        <v>5.15377792724703E-007</v>
+        <v>1.55968920211282E-010</v>
       </c>
       <c r="T35" s="7" t="n">
-        <v>1.04904607734804E-005</v>
+        <v>3.17473096911753E-009</v>
       </c>
       <c r="U35" s="7" t="n">
         <v>0</v>
@@ -6243,52 +6243,52 @@
         <v>0.415754148528756</v>
       </c>
       <c r="E36" s="7" t="n">
-        <v>4.91649290413614E-007</v>
+        <v>1.79932605690853E-010</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>7.92183507479508E-007</v>
+        <v>2.89921383932419E-010</v>
       </c>
       <c r="G36" s="7" t="n">
-        <v>1.55617802676626E-006</v>
+        <v>5.6952623086131E-010</v>
       </c>
       <c r="H36" s="7" t="n">
-        <v>1.08153979585804E-006</v>
+        <v>3.95819291152386E-010</v>
       </c>
       <c r="I36" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J36" s="7" t="n">
-        <v>2.55955752607939E-005</v>
+        <v>9.36740607711748E-009</v>
       </c>
       <c r="K36" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L36" s="7" t="n">
-        <v>1.90849847104654E-005</v>
+        <v>6.98467605970742E-009</v>
       </c>
       <c r="M36" s="7" t="n">
-        <v>1.57501232423125E-005</v>
+        <v>5.76419161015611E-009</v>
       </c>
       <c r="N36" s="7" t="n">
-        <v>1.3956335825316E-005</v>
+        <v>5.10770567538721E-009</v>
       </c>
       <c r="O36" s="7" t="n">
-        <v>8.48987644662689E-006</v>
+        <v>3.10710423226652E-009</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>3.73482726423903E-006</v>
+        <v>1.36686295406715E-009</v>
       </c>
       <c r="Q36" s="7" t="n">
         <v>0</v>
       </c>
       <c r="R36" s="7" t="n">
-        <v>3.94580321901444E-005</v>
+        <v>1.44407541836038E-008</v>
       </c>
       <c r="S36" s="7" t="n">
-        <v>4.79302832244009E-007</v>
+        <v>1.75414079105284E-010</v>
       </c>
       <c r="T36" s="7" t="n">
-        <v>7.06533383683623E-006</v>
+        <v>2.5857536095866E-009</v>
       </c>
       <c r="U36" s="7" t="n">
         <v>0</v>
@@ -6317,34 +6317,34 @@
         <v>0.301718138154556</v>
       </c>
       <c r="E37" s="7" t="n">
-        <v>1.06653680796452E-006</v>
+        <v>2.83266442578408E-010</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>1.73654479398779E-006</v>
+        <v>4.61216961756597E-010</v>
       </c>
       <c r="G37" s="7" t="n">
-        <v>2.34829858638108E-006</v>
+        <v>6.2369548027657E-010</v>
       </c>
       <c r="H37" s="7" t="n">
-        <v>2.71926836278911E-006</v>
+        <v>7.22223058586559E-010</v>
       </c>
       <c r="I37" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J37" s="7" t="n">
-        <v>1.66368836557154E-005</v>
+        <v>4.418666860396E-009</v>
       </c>
       <c r="K37" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L37" s="7" t="n">
-        <v>1.13104130564459E-005</v>
+        <v>3.00398490391192E-009</v>
       </c>
       <c r="M37" s="7" t="n">
-        <v>1.11980084244234E-005</v>
+        <v>2.97413083792507E-009</v>
       </c>
       <c r="N37" s="7" t="n">
-        <v>8.15019967226427E-006</v>
+        <v>2.16464921812882E-009</v>
       </c>
       <c r="O37" s="7" t="n">
         <v>0</v>
@@ -6356,10 +6356,10 @@
         <v>0</v>
       </c>
       <c r="R37" s="7" t="n">
-        <v>2.46959584441988E-005</v>
+        <v>6.55911379927274E-009</v>
       </c>
       <c r="S37" s="7" t="n">
-        <v>7.21811117193477E-007</v>
+        <v>1.91709152327487E-010</v>
       </c>
       <c r="T37" s="7" t="n">
         <v>0</v>
@@ -6391,52 +6391,52 @@
         <v>0.314873999999999</v>
       </c>
       <c r="E38" s="7" t="n">
-        <v>8.34424429813119E-007</v>
+        <v>2.3128191412997E-010</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>1.59997580966697E-007</v>
+        <v>4.43473913993989E-011</v>
       </c>
       <c r="G38" s="7" t="n">
-        <v>3.00386451777424E-006</v>
+        <v>8.32597309757005E-010</v>
       </c>
       <c r="H38" s="7" t="n">
-        <v>2.91169608856115E-007</v>
+        <v>8.07050489734573E-011</v>
       </c>
       <c r="I38" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J38" s="7" t="n">
-        <v>1.93555675911412E-006</v>
+        <v>5.36488693476263E-010</v>
       </c>
       <c r="K38" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L38" s="7" t="n">
-        <v>1.80201950773806E-006</v>
+        <v>4.9947545416731E-010</v>
       </c>
       <c r="M38" s="7" t="n">
-        <v>1.2803607019997E-006</v>
+        <v>3.54884472883427E-010</v>
       </c>
       <c r="N38" s="7" t="n">
-        <v>1.00746365589493E-006</v>
+        <v>2.79244128559301E-010</v>
       </c>
       <c r="O38" s="7" t="n">
-        <v>1.97515268886458E-008</v>
+        <v>5.47463710622504E-012</v>
       </c>
       <c r="P38" s="7" t="n">
-        <v>3.73482726423903E-008</v>
+        <v>1.03520219178082E-011</v>
       </c>
       <c r="Q38" s="7" t="n">
-        <v>4.24713693592714E-007</v>
+        <v>1.17720182321762E-010</v>
       </c>
       <c r="R38" s="7" t="n">
-        <v>1.89630082292518E-006</v>
+        <v>5.25607914176959E-010</v>
       </c>
       <c r="S38" s="7" t="n">
-        <v>3.60960129198478E-008</v>
+        <v>1.00049263447767E-011</v>
       </c>
       <c r="T38" s="7" t="n">
-        <v>1.41216300036966E-006</v>
+        <v>3.91416825921751E-010</v>
       </c>
       <c r="U38" s="7" t="n">
         <v>0</v>
@@ -6465,52 +6465,52 @@
         <v>0.208845</v>
       </c>
       <c r="E39" s="7" t="n">
-        <v>8.55394236298734E-007</v>
+        <v>1.57256375949596E-010</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>8.50582005264407E-007</v>
+        <v>1.56371691460764E-010</v>
       </c>
       <c r="G39" s="7" t="n">
-        <v>5.00589366823399E-006</v>
+        <v>9.20287585829123E-010</v>
       </c>
       <c r="H39" s="7" t="n">
-        <v>1.97215527726302E-006</v>
+        <v>3.62562639016827E-010</v>
       </c>
       <c r="I39" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J39" s="7" t="n">
-        <v>4.90807013010178E-006</v>
+        <v>9.02303626578003E-010</v>
       </c>
       <c r="K39" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L39" s="7" t="n">
-        <v>6.55981325561992E-006</v>
+        <v>1.20596143358236E-009</v>
       </c>
       <c r="M39" s="7" t="n">
-        <v>3.94232261205948E-006</v>
+        <v>7.24759813064849E-010</v>
       </c>
       <c r="N39" s="7" t="n">
-        <v>3.20624839464513E-006</v>
+        <v>5.89439326967849E-010</v>
       </c>
       <c r="O39" s="7" t="n">
-        <v>1.63847893508085E-008</v>
+        <v>3.01219307386803E-012</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>2.52100840336134E-008</v>
+        <v>4.63464246575343E-012</v>
       </c>
       <c r="Q39" s="7" t="n">
-        <v>1.04296424888211E-007</v>
+        <v>1.91739400459222E-011</v>
       </c>
       <c r="R39" s="7" t="n">
-        <v>4.8674934771948E-006</v>
+        <v>8.94843981523666E-010</v>
       </c>
       <c r="S39" s="7" t="n">
-        <v>9.30212005081977E-007</v>
+        <v>1.71010935749294E-010</v>
       </c>
       <c r="T39" s="7" t="n">
-        <v>1.6173517036562E-005</v>
+        <v>2.97335259883674E-009</v>
       </c>
       <c r="U39" s="7" t="n">
         <v>0</v>
@@ -6539,52 +6539,52 @@
         <v>0.20610538640507</v>
       </c>
       <c r="E40" s="7" t="n">
-        <v>1.03138617107802E-007</v>
+        <v>1.87123575403403E-011</v>
       </c>
       <c r="F40" s="7" t="n">
-        <v>1.73394782536647E-007</v>
+        <v>3.14588779396175E-011</v>
       </c>
       <c r="G40" s="7" t="n">
-        <v>3.9417862310854E-006</v>
+        <v>7.15155151116337E-010</v>
       </c>
       <c r="H40" s="7" t="n">
-        <v>4.63009823958665E-007</v>
+        <v>8.40035053170121E-011</v>
       </c>
       <c r="I40" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J40" s="7" t="n">
-        <v>1.0195161509969E-005</v>
+        <v>1.84970007069857E-009</v>
       </c>
       <c r="K40" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L40" s="7" t="n">
-        <v>1.09247547462912E-005</v>
+        <v>1.98206959319087E-009</v>
       </c>
       <c r="M40" s="7" t="n">
-        <v>2.995108201997E-006</v>
+        <v>5.43400106763055E-010</v>
       </c>
       <c r="N40" s="7" t="n">
-        <v>4.74914003745229E-006</v>
+        <v>8.61632712188356E-010</v>
       </c>
       <c r="O40" s="7" t="n">
-        <v>1.08434484905073E-006</v>
+        <v>1.96731826365826E-010</v>
       </c>
       <c r="P40" s="7" t="n">
-        <v>1.25147836912543E-006</v>
+        <v>2.2705472842049E-010</v>
       </c>
       <c r="Q40" s="7" t="n">
         <v>0</v>
       </c>
       <c r="R40" s="7" t="n">
-        <v>4.74085434165904E-006</v>
+        <v>8.60129444968945E-010</v>
       </c>
       <c r="S40" s="7" t="n">
-        <v>1.25026144020606E-007</v>
+        <v>2.2683394197135E-011</v>
       </c>
       <c r="T40" s="7" t="n">
-        <v>1.24494242141301E-006</v>
+        <v>2.25868916608296E-010</v>
       </c>
       <c r="U40" s="7" t="n">
         <v>0</v>
@@ -6613,13 +6613,13 @@
         <v>0.302021999999999</v>
       </c>
       <c r="E41" s="7" t="n">
-        <v>3.93542698237806E-007</v>
+        <v>1.04628090457387E-010</v>
       </c>
       <c r="F41" s="7" t="n">
-        <v>7.57909643088957E-008</v>
+        <v>2.01499453682456E-011</v>
       </c>
       <c r="G41" s="7" t="n">
-        <v>1.85651443945349E-006</v>
+        <v>4.93576838234742E-010</v>
       </c>
       <c r="H41" s="7" t="n">
         <v>0</v>
@@ -6628,37 +6628,37 @@
         <v>0</v>
       </c>
       <c r="J41" s="7" t="n">
-        <v>2.71850141605701E-006</v>
+        <v>7.22746510966584E-010</v>
       </c>
       <c r="K41" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L41" s="7" t="n">
-        <v>2.09987089099887E-006</v>
+        <v>5.58276096891277E-010</v>
       </c>
       <c r="M41" s="7" t="n">
-        <v>1.15676652294882E-006</v>
+        <v>3.07540383656241E-010</v>
       </c>
       <c r="N41" s="7" t="n">
-        <v>1.70021217533478E-006</v>
+        <v>4.52021989162115E-010</v>
       </c>
       <c r="O41" s="7" t="n">
-        <v>1.30928682027008E-008</v>
+        <v>3.48089751072208E-012</v>
       </c>
       <c r="P41" s="7" t="n">
-        <v>2.52100840336134E-008</v>
+        <v>6.70240602739723E-012</v>
       </c>
       <c r="Q41" s="7" t="n">
-        <v>6.34402035039116E-007</v>
+        <v>1.68663460929757E-010</v>
       </c>
       <c r="R41" s="7" t="n">
-        <v>3.32775950435269E-006</v>
+        <v>8.84725149268178E-010</v>
       </c>
       <c r="S41" s="7" t="n">
-        <v>2.12655813820824E-008</v>
+        <v>5.65371224631123E-012</v>
       </c>
       <c r="T41" s="7" t="n">
-        <v>1.51897876974795E-006</v>
+        <v>4.03838894319937E-010</v>
       </c>
       <c r="U41" s="7" t="n">
         <v>0</v>
@@ -6687,55 +6687,55 @@
         <v>1.97354302408219</v>
       </c>
       <c r="E42" s="7" t="n">
-        <v>1.66611276912811E-006</v>
+        <v>2.89446866661301E-009</v>
       </c>
       <c r="F42" s="7" t="n">
-        <v>1.51112344315797E-006</v>
+        <v>2.62521213368651E-009</v>
       </c>
       <c r="G42" s="7" t="n">
-        <v>2.850997082348E-006</v>
+        <v>4.95291907988907E-009</v>
       </c>
       <c r="H42" s="7" t="n">
-        <v>2.6311858076564E-006</v>
+        <v>4.5710500618057E-009</v>
       </c>
       <c r="I42" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J42" s="7" t="n">
-        <v>4.38247519144314E-005</v>
+        <v>7.61349253116833E-008</v>
       </c>
       <c r="K42" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L42" s="7" t="n">
-        <v>3.00928817422549E-005</v>
+        <v>5.22791163389436E-008</v>
       </c>
       <c r="M42" s="7" t="n">
-        <v>1.10016113041428E-005</v>
+        <v>1.91126433889353E-008</v>
       </c>
       <c r="N42" s="7" t="n">
-        <v>2.38109201863261E-005</v>
+        <v>4.13657248654367E-008</v>
       </c>
       <c r="O42" s="7" t="n">
-        <v>2.60454565591173E-007</v>
+        <v>4.52476923020323E-010</v>
       </c>
       <c r="P42" s="7" t="n">
-        <v>2.39651416122004E-007</v>
+        <v>4.16336473573501E-010</v>
       </c>
       <c r="Q42" s="7" t="n">
         <v>0</v>
       </c>
       <c r="R42" s="7" t="n">
-        <v>3.74305987267046E-005</v>
+        <v>6.50266279657096E-008</v>
       </c>
       <c r="S42" s="7" t="n">
-        <v>1.79298637609292E-006</v>
+        <v>3.1148809260857E-009</v>
       </c>
       <c r="T42" s="7" t="n">
-        <v>5.79236635531435E-006</v>
+        <v>1.00628380213271E-008</v>
       </c>
       <c r="U42" s="7" t="n">
-        <v>1.41383262011942E-005</v>
+        <v>2.45619281875655E-008</v>
       </c>
       <c r="V42" s="7" t="n">
         <v>0.000177043967890465</v>
@@ -6761,55 +6761,55 @@
         <v>0.366282</v>
       </c>
       <c r="E43" s="7" t="n">
-        <v>1.29471026872279E-006</v>
+        <v>4.17451504422208E-010</v>
       </c>
       <c r="F43" s="7" t="n">
-        <v>3.80320560500616E-007</v>
+        <v>1.22626192113467E-010</v>
       </c>
       <c r="G43" s="7" t="n">
-        <v>4.82395551123231E-006</v>
+        <v>1.55538079374027E-009</v>
       </c>
       <c r="H43" s="7" t="n">
-        <v>2.74453056766514E-007</v>
+        <v>8.84914904965395E-011</v>
       </c>
       <c r="I43" s="7" t="n">
-        <v>5.26078808280374E-008</v>
+        <v>1.69622806945007E-011</v>
       </c>
       <c r="J43" s="7" t="n">
-        <v>2.03351613654779E-005</v>
+        <v>6.55663580475134E-009</v>
       </c>
       <c r="K43" s="7" t="n">
-        <v>5.92497897438158E-008</v>
+        <v>1.91038214979595E-011</v>
       </c>
       <c r="L43" s="7" t="n">
-        <v>3.39484196454759E-005</v>
+        <v>1.09459384049998E-008</v>
       </c>
       <c r="M43" s="7" t="n">
-        <v>2.97578160861002E-006</v>
+        <v>9.59476833818304E-010</v>
       </c>
       <c r="N43" s="7" t="n">
-        <v>1.24013740497969E-005</v>
+        <v>3.99855657211805E-009</v>
       </c>
       <c r="O43" s="7" t="n">
-        <v>1.65876956576772E-009</v>
+        <v>5.3483460156889E-013</v>
       </c>
       <c r="P43" s="7" t="n">
         <v>0</v>
       </c>
       <c r="Q43" s="7" t="n">
-        <v>1.79318358404848E-007</v>
+        <v>5.78173513371984E-011</v>
       </c>
       <c r="R43" s="7" t="n">
-        <v>1.12603042716549E-005</v>
+        <v>3.6306431423389E-009</v>
       </c>
       <c r="S43" s="7" t="n">
-        <v>2.45742040976633E-007</v>
+        <v>7.92342404194244E-011</v>
       </c>
       <c r="T43" s="7" t="n">
-        <v>7.37752263820274E-006</v>
+        <v>2.37872364082256E-009</v>
       </c>
       <c r="U43" s="7" t="n">
-        <v>9.2097754656634E-007</v>
+        <v>2.96949419218293E-010</v>
       </c>
       <c r="V43" s="7" t="n">
         <v>9.6531557362526E-005</v>
@@ -6936,7 +6936,7 @@
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/sedDegr.xlsx
+++ b/sedDegr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="169" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="169" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="WFL" sheetId="1" state="visible" r:id="rId2"/>
@@ -3629,7 +3629,7 @@
   </sheetPr>
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -6935,8 +6935,8 @@
   </sheetPr>
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -7032,64 +7032,64 @@
         <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>354.998690737612</v>
+        <v>314.098821663851</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>109.539467372376</v>
+        <v>89.5855206351387</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>54.1844365945727</v>
+        <v>48.1359929351154</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>34.3582522194336</v>
+        <v>36.3224269974902</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1.51084270391904</v>
+        <v>1.35975843352714</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>18.7759557211107</v>
+        <v>26.9743184829996</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>0.142917229408645</v>
+        <v>0.128625506467781</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>6.53805120623662</v>
+        <v>2.91424608561296</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>18.7322942290163</v>
+        <v>12.3590648061147</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>9.38612421062472</v>
+        <v>3.31751178956225</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>0.02732</v>
+        <v>0.066559662</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>0.00851811</v>
+        <v>0.007666299</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>0.211174314021521</v>
+        <v>0.190056882619369</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>60.7493368202176</v>
+        <v>49.2744031381958</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>17.8187998059137</v>
+        <v>14.7769198253223</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>20.5951214849675</v>
+        <v>12.7756093364708</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>0.19810494785578</v>
+        <v>0.178294453070202</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>707.775407707287</v>
+        <v>680.517552147287</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>554.591689627914</v>
+        <v>543.891689627914</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>53.8223550204185</v>
+        <v>51.0644994604185</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7106,64 +7106,64 @@
         <v>1</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0.0184186953155188</v>
+        <v>0.0149568257839669</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.0145562833403123</v>
+        <v>0.0473006550062811</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.0424048564402912</v>
+        <v>0.0243657742436598</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.0208321423720529</v>
+        <v>0.0421489281348476</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.00011945326846092</v>
+        <v>0.000107507941614828</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.402312731731039</v>
+        <v>0.452081458557935</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.010364363005592</v>
+        <v>0.0093279267050328</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.209458258101211</v>
+        <v>0.21551243229109</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.181533832299209</v>
+        <v>0.217380449069288</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.219584771791302</v>
+        <v>0.240826294612172</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.00865977902883751</v>
+        <v>0.00779380112595376</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.00646522879898538</v>
+        <v>0.00581870591908683</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>0.00391735998791153</v>
+        <v>0.00352562398912038</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>0.612163769122314</v>
+        <v>0.388947392210083</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>0.03323254</v>
+        <v>0.029909286</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>0.106791664321654</v>
+        <v>0.0853124978894885</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>0.0105582907132921</v>
+        <v>0.00950246164196289</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>1.90137401963798</v>
+        <v>1.99424224569065</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>0.0963314307366362</v>
+        <v>0.1431996567893</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>1.04229632474409</v>
+        <v>1.28029632474409</v>
       </c>
     </row>
   </sheetData>

--- a/sedDegr.xlsx
+++ b/sedDegr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="169" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="169" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WFL" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="47">
   <si>
     <t>Sample</t>
   </si>
@@ -121,19 +121,59 @@
   <si>
     <t>N Annual deposition (cm)</t>
   </si>
+  <si>
+    <t>BA:</t>
+  </si>
+  <si>
+    <t>Deposition</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>(g/cm2/year):</t>
+  </si>
+  <si>
+    <t>Sedimentation</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>(cm/year):</t>
+  </si>
+  <si>
+    <t>N:</t>
+  </si>
+  <si>
+    <t>Retention</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>sediment</t>
+  </si>
+  <si>
+    <t>(%)</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY;@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="170" formatCode="0.00E+000"/>
+    <numFmt numFmtId="171" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -255,7 +295,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -337,6 +377,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3629,8 +3673,8 @@
   </sheetPr>
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F54" activeCellId="0" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6837,10 +6881,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6915,6 +6959,555 @@
       <c r="B8" s="19" t="n">
         <f aca="false">Sheet3!B7/Sheet3!B4</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>12.52</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.0671861287979</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>6.5043660888</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.00308612389878</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>40.3871076676</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.00876993233868</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>7.63645821842</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.00502373538883</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>10.0592682916</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="20" t="n">
+        <v>1.13736008665E-005</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>166.334396002</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.00384525844516</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>9.75985204793</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.000217173355268</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.824022071787</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.000389117984313</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>10.4198917254</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.00119501642915</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>14.3889804129</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.000400093182583</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>11.5363815572</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="20" t="n">
+        <v>6.39074466363E-006</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>14.4903184429</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="20" t="n">
+        <v>1.59663061052E-006</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>6.68035574293</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="20" t="n">
+        <v>9.93571579463E-006</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>26.6135450932</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0.0149154483372</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>4.59624688049</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0.00205071001666</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>10.0253132674</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.00285513138424</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>6.22549391704</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>7.72670281262</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0.110282326655</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>5.60435010926</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0.121520056332</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0.449994029176</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0.142093144529</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="0" t="n">
+        <v>0.196462086872</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="20" t="n">
+        <v>3.67290511908E-007</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>2.22312576685</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="20" t="n">
+        <v>4.34047450237E-007</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>5.9492778485</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="20" t="n">
+        <v>5.2356514698E-007</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>2.54064387856</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="20" t="n">
+        <v>6.16163588502E-007</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>3.73443419439</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="20" t="n">
+        <v>1.30853609689E-010</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>44.8527572882</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="20" t="n">
+        <v>8.57022958269E-006</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>2.8797749267</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="20" t="n">
+        <v>1.15987564817E-007</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>4.39043954356</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="20" t="n">
+        <v>3.57036444705E-006</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>3.29529338057</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="20" t="n">
+        <v>3.7693182222E-006</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>3.14841508354</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="20" t="n">
+        <v>3.86238112646E-006</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>3.40394931002</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="20" t="n">
+        <v>1.65523052131E-007</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>2.57054458367</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="20" t="n">
+        <v>5.15977708613E-008</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>6.15644176132</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="20" t="n">
+        <v>1.15005432031E-008</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>16.7360107268</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="20" t="n">
+        <v>1.35465653221E-005</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>1.56745822565</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="20" t="n">
+        <v>2.68113466969E-007</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>6.09006213808</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="20" t="n">
+        <v>2.6662987655E-006</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>1.74677976836</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="20" t="n">
+        <v>5.61754761268E-007</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>0.923471867965</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0.0541453859137</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>0.00201071614638</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>0.00301717807049</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>0.00259104730115</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0.0311895761621</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>0.00224096633539</v>
       </c>
     </row>
   </sheetData>
@@ -6933,10 +7526,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -7022,7 +7615,7 @@
       <c r="A2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="20" t="n">
+      <c r="B2" s="21" t="n">
         <v>40179</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -7032,55 +7625,55 @@
         <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>314.098821663851</v>
+        <v>348.998690737612</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>89.5855206351387</v>
+        <v>99.5394673723764</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>48.1359929351154</v>
+        <v>53.4844365945727</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>36.3224269974902</v>
+        <v>40.3582522194336</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1.35975843352714</v>
+        <v>1.51084270391904</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>26.9743184829996</v>
+        <v>29.9714649811107</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>0.128625506467781</v>
+        <v>0.142917229408645</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>2.91424608561296</v>
+        <v>3.23805120623662</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>12.3590648061147</v>
+        <v>13.7322942290163</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>3.31751178956225</v>
+        <v>3.68612421062472</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>0.066559662</v>
+        <v>0.07395518</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>0.007666299</v>
+        <v>0.00851811</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>0.190056882619369</v>
+        <v>0.211174314021521</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>49.2744031381958</v>
+        <v>54.7493368202176</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>14.7769198253223</v>
+        <v>16.4187998059137</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>12.7756093364708</v>
+        <v>14.1951214849675</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>0.178294453070202</v>
+        <v>0.19810494785578</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>680.517552147287</v>
@@ -7096,7 +7689,7 @@
       <c r="A3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="20" t="n">
+      <c r="B3" s="21" t="n">
         <v>40180</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -7164,6 +7757,11 @@
       </c>
       <c r="X3" s="0" t="n">
         <v>1.28029632474409</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>314.0988</v>
       </c>
     </row>
   </sheetData>

--- a/sedDegr.xlsx
+++ b/sedDegr.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="52">
   <si>
     <t>Sample</t>
   </si>
@@ -162,13 +162,19 @@
     <t>inf</t>
   </si>
   <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
     <t>Acc Eff</t>
   </si>
   <si>
-    <t>V Flux</t>
+    <t>x area</t>
   </si>
   <si>
-    <t>x area</t>
+    <t>V Flux</t>
   </si>
 </sst>
 </file>
@@ -8045,10 +8051,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8057,6 +8063,12 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>48</v>
+      </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
@@ -8070,48 +8082,30 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>24</v>
@@ -8129,46 +8123,31 @@
         <v>8.73734960781525</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>133.092867664227</v>
+        <v>8.91433496735554</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>8.91433496735554</v>
+        <v>10.105348109062</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.776713929826118</v>
+        <v>12.9643565375915</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>10.105348109062</v>
+        <v>10.9927780227709</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>12.9643565375915</v>
+        <v>4.33439671740941</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>10.9927780227709</v>
+        <v>10.486491901084</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>10.7067414296811</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>3.66157564255034</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>23.6245936473331</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>4.33439671740941</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>10.486491901084</v>
-      </c>
-      <c r="R2" s="0" t="n">
         <v>5.48488227400302</v>
       </c>
-      <c r="S2" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>49</v>
+      </c>
       <c r="B3" s="0" t="s">
         <v>25</v>
       </c>
@@ -8185,506 +8164,312 @@
         <v>8.46518884566448</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>20.0680335149637</v>
+        <v>4.04893105178368</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>4.04893105178368</v>
+        <v>4.63838831119575</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>2.98313552636821</v>
+        <v>4.47143991124339</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>4.63838831119575</v>
+        <v>4.65943360455594</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>4.47143991124339</v>
+        <v>2.25051932359565</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>4.65943360455594</v>
+        <v>8.2987336065741</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>2.0116399979816</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>5.31368514051447</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>13.2759537336571</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>2.25051932359565</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>8.2987336065741</v>
-      </c>
-      <c r="R3" s="0" t="n">
         <v>2.60926606216575</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>4.64503439299947</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="0" t="n">
+        <v>6.5043660888</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>40.3871076676</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>7.63645821842</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>10.0592682916</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>9.75985204793</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>10.4198917254</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>14.3889804129</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>11.5363815572</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>4.59624688049</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>10.0253132674</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>6.22549391704</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2.22312576685</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5.9492778485</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2.54064387856</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>3.73443419439</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2.8797749267</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>3.29529338057</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>3.14841508354</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>3.40394931002</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>1.56745822565</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>6.09006213808</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>1.74677976836</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>69.4866667310927</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>3.55495857846617</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>9.7622352699403</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>5.78380222498941</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>0.0142142931</v>
-      </c>
-      <c r="H4" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>4.20997793422414</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>0.230400963949023</v>
-      </c>
-      <c r="J4" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>0.401229845937585</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>1.32633408703086</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>0.419878178487971</v>
       </c>
-      <c r="M4" s="0" t="n">
-        <v>0.0086491231596</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>0.00291297012804</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0.011192769038934</v>
-      </c>
-      <c r="P4" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>15.8165224275827</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>1.96052316938205</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>3.24065352308549</v>
       </c>
-      <c r="S4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="n">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>107.971755717199</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>4.13246627357794</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>14.5063999531129</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>9.42280387863596</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>0.0358976600467415</v>
-      </c>
-      <c r="H5" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>7.53867126455901</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>0.489686540143072</v>
-      </c>
-      <c r="J5" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>0.35747687134682</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>1.60128387138406</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>0.569029388380005</v>
       </c>
-      <c r="M5" s="0" t="n">
-        <v>0.0152741847126224</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>0.006665050351081</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>0.0386825315297145</v>
-      </c>
-      <c r="P5" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>25.953140200967</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>4.32996289525468</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>4.56076901820934</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.600957585385339</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.709158084929426</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.961601631525769</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.71637518003532</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0.000770772792218208</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>16.0644906803852</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0.449886320086041</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>6.68491472527419</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>6.99461362425276</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>7.43637740915432</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>0.557429186580849</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>0.157551026862863</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>0.0382085810067874</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>24.865589777261</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>0.518543110714852</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>4.70419091891999</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>0.294332241635718</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="n">
-        <v>0.825722124001807</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0.976181609174398</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1.06296177012225</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1.73266766838192</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0.00385386396109104</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>27.6394361288351</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>1.20845137543102</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>7.52816098490432</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>12.1847332040597</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>10.9990118235761</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>1.71627496890921</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>0.43082913336723</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>0.0817735993036228</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>56.9456209641195</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>0.789105802487702</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>14.3126164539504</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>0.98831146008582</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="U8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="V8" s="0" t="s">
-        <v>23</v>
+        <v>51</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.600957585385339</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.709158084929426</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.961601631525769</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.71637518003532</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>16.0644906803852</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>6.68491472527419</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>6.99461362425276</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>7.43637740915432</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>24.865589777261</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0.518543110714852</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>4.70419091891999</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>2.22312576685</v>
+        <v>0.825722124001807</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>5.9492778485</v>
+        <v>0.976181609174398</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>2.54064387856</v>
+        <v>1.06296177012225</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3.73443419439</v>
+        <v>1.73266766838192</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>44.8527572882</v>
+        <v>27.6394361288351</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>2.8797749267</v>
+        <v>7.52816098490432</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>4.39043954356</v>
+        <v>12.1847332040597</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>3.29529338057</v>
+        <v>10.9990118235761</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>3.14841508354</v>
+        <v>56.9456209641195</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>3.40394931002</v>
+        <v>0.789105802487702</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>2.57054458367</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>6.15644176132</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>16.7360107268</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>1.56745822565</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>6.09006213808</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>1.74677976836</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>0.923471867965</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>0.00201071614638</v>
-      </c>
-      <c r="U9" s="0" t="n">
-        <v>0.00259104730115</v>
-      </c>
-      <c r="V9" s="0" t="n">
-        <v>0.00224096633539</v>
+        <v>14.3126164539504</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+      <c r="A10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="F10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="G10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="H10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="I10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="J10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="K10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="L10" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="M10" s="0" t="n">
         <v>12</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="S10" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>6.5043660888</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>40.3871076676</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>7.63645821842</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>10.0592682916</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>166.334396002</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>9.75985204793</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>0.824022071787</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>10.4198917254</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>14.3889804129</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>11.5363815572</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>14.4903184429</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>6.68035574293</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>26.6135450932</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>4.59624688049</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>10.0253132674</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>6.22549391704</v>
-      </c>
-      <c r="S11" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/sedDegr.xlsx
+++ b/sedDegr.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="75">
   <si>
     <t>Sample</t>
   </si>
@@ -168,6 +168,21 @@
     <t>site</t>
   </si>
   <si>
+    <r>
+      <t>β</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>-Sitosterol</t>
+    </r>
+  </si>
+  <si>
     <t>Acc Eff</t>
   </si>
   <si>
@@ -175,6 +190,83 @@
   </si>
   <si>
     <t>V Flux</t>
+  </si>
+  <si>
+    <r>
+      <t>69</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>±108</t>
+    </r>
+  </si>
+  <si>
+    <t>3.6±4.1</t>
+  </si>
+  <si>
+    <t>9.8±14</t>
+  </si>
+  <si>
+    <t>5.8±9.4</t>
+  </si>
+  <si>
+    <t>4.2±7.5</t>
+  </si>
+  <si>
+    <t>0.40±0.36</t>
+  </si>
+  <si>
+    <t>1.3±1.6</t>
+  </si>
+  <si>
+    <t>0.42±0.57</t>
+  </si>
+  <si>
+    <t>16±26</t>
+  </si>
+  <si>
+    <t>2.0±4.3</t>
+  </si>
+  <si>
+    <t>3.2±4.6</t>
+  </si>
+  <si>
+    <t>0.60±0.83</t>
+  </si>
+  <si>
+    <t>0.71±0.98</t>
+  </si>
+  <si>
+    <t>0.96±1.1</t>
+  </si>
+  <si>
+    <t>0.72±1.7</t>
+  </si>
+  <si>
+    <t>16±28</t>
+  </si>
+  <si>
+    <t>6.7±7.5</t>
+  </si>
+  <si>
+    <t>7.0±12</t>
+  </si>
+  <si>
+    <t>7.4±11</t>
+  </si>
+  <si>
+    <t>25±57</t>
+  </si>
+  <si>
+    <t>0.52±0.79</t>
+  </si>
+  <si>
+    <t>4.7±14</t>
   </si>
 </sst>
 </file>
@@ -191,7 +283,7 @@
     <numFmt numFmtId="170" formatCode="0.00E+000"/>
     <numFmt numFmtId="171" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -235,6 +327,19 @@
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -311,7 +416,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -397,6 +502,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8051,10 +8168,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8081,8 +8198,8 @@
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
+      <c r="G1" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
@@ -8105,7 +8222,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>24</v>
@@ -8146,7 +8263,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>25</v>
@@ -8187,7 +8304,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>24</v>
@@ -8228,7 +8345,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>25</v>
@@ -8269,7 +8386,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>24</v>
@@ -8277,7 +8394,7 @@
       <c r="C6" s="0" t="n">
         <v>69.4866667310927</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="23" t="n">
         <v>3.55495857846617</v>
       </c>
       <c r="E6" s="0" t="n">
@@ -8310,7 +8427,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>24</v>
@@ -8351,7 +8468,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>25</v>
@@ -8392,7 +8509,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
@@ -8432,44 +8549,85 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>12</v>
+      <c r="A10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/sedDegr.xlsx
+++ b/sedDegr.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="77">
   <si>
     <t>Sample</t>
   </si>
@@ -236,6 +236,9 @@
     <t>3.2±4.6</t>
   </si>
   <si>
+    <t>116±68</t>
+  </si>
+  <si>
     <t>0.60±0.83</t>
   </si>
   <si>
@@ -268,12 +271,15 @@
   <si>
     <t>4.7±14</t>
   </si>
+  <si>
+    <t>70±125</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY;@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
@@ -282,8 +288,9 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.00E+000"/>
     <numFmt numFmtId="171" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="172" formatCode="0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -334,6 +341,13 @@
       <b val="true"/>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -416,7 +430,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -509,11 +523,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3806,8 +3828,8 @@
   </sheetPr>
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F54" activeCellId="0" sqref="F54"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S4" activeCellId="0" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3890,7 +3912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -3955,7 +3977,8 @@
         <v>0</v>
       </c>
       <c r="V2" s="7" t="n">
-        <v>0.00186162297915148</v>
+        <f aca="false">SUM(E2:U2)</f>
+        <v>7.01859959723174E-006</v>
       </c>
       <c r="W2" s="7" t="n">
         <v>0.0014276214083062</v>
@@ -3964,7 +3987,7 @@
         <v>0.000176170854287463</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -4029,7 +4052,8 @@
         <v>0</v>
       </c>
       <c r="V3" s="7" t="n">
-        <v>0.00479788935833296</v>
+        <f aca="false">SUM(E3:U3)</f>
+        <v>2.81983929729681E-005</v>
       </c>
       <c r="W3" s="7" t="n">
         <v>0.00338807247292815</v>
@@ -4038,7 +4062,7 @@
         <v>0.000514385764894431</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -4103,7 +4127,8 @@
         <v>0</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.0097597072707799</v>
+        <f aca="false">SUM(E4:U4)</f>
+        <v>0.000100062970039694</v>
       </c>
       <c r="W4" s="7" t="n">
         <v>0.00673451826907287</v>
@@ -4112,7 +4137,7 @@
         <v>0.00111113507965663</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -4177,7 +4202,8 @@
         <v>0</v>
       </c>
       <c r="V5" s="7" t="n">
-        <v>0.0068639066926433</v>
+        <f aca="false">SUM(E5:U5)</f>
+        <v>5.15617950710118E-005</v>
       </c>
       <c r="W5" s="7" t="n">
         <v>0.00479275707643505</v>
@@ -4186,7 +4212,7 @@
         <v>0.000781486107830324</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -4251,7 +4277,8 @@
         <v>0</v>
       </c>
       <c r="V6" s="7" t="n">
-        <v>0.0817309862945637</v>
+        <f aca="false">SUM(E6:U6)</f>
+        <v>0.00142903980910201</v>
       </c>
       <c r="W6" s="7" t="n">
         <v>0.0623996833891793</v>
@@ -4260,7 +4287,7 @@
         <v>0.00286309216619981</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -4325,7 +4352,8 @@
         <v>0</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>0.0395041976442048</v>
+        <f aca="false">SUM(E7:U7)</f>
+        <v>0.00015195351142161</v>
       </c>
       <c r="W7" s="7" t="n">
         <v>0.0284510583724961</v>
@@ -4334,7 +4362,7 @@
         <v>0.00457669950824774</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -4399,7 +4427,8 @@
         <v>0</v>
       </c>
       <c r="V8" s="7" t="n">
-        <v>0.0118727201991908</v>
+        <f aca="false">SUM(E8:U8)</f>
+        <v>5.96378229179179E-005</v>
       </c>
       <c r="W8" s="7" t="n">
         <v>0.0118727201991908</v>
@@ -4408,7 +4437,7 @@
         <v>0.0011829474011827</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -4473,7 +4502,8 @@
         <v>0</v>
       </c>
       <c r="V9" s="7" t="n">
-        <v>0.0168079231248055</v>
+        <f aca="false">SUM(E9:U9)</f>
+        <v>0.000122268224004233</v>
       </c>
       <c r="W9" s="7" t="n">
         <v>0.0168079231248055</v>
@@ -4482,7 +4512,7 @@
         <v>0.00160342545907252</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -4547,7 +4577,8 @@
         <v>0</v>
       </c>
       <c r="V10" s="7" t="n">
-        <v>0.0155620964830377</v>
+        <f aca="false">SUM(E10:U10)</f>
+        <v>0.000153919031680761</v>
       </c>
       <c r="W10" s="7" t="n">
         <v>0</v>
@@ -4556,7 +4587,7 @@
         <v>0.00106083753501401</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -4621,7 +4652,8 @@
         <v>0</v>
       </c>
       <c r="V11" s="7" t="n">
-        <v>0.0753801353999191</v>
+        <f aca="false">SUM(E11:U11)</f>
+        <v>0.00114146833051502</v>
       </c>
       <c r="W11" s="7" t="n">
         <v>0.0613316337005727</v>
@@ -4630,7 +4662,7 @@
         <v>0.0024162936756925</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -4695,7 +4727,8 @@
         <v>0</v>
       </c>
       <c r="V12" s="7" t="n">
-        <v>0.0110372807625874</v>
+        <f aca="false">SUM(E12:U12)</f>
+        <v>4.56392027574174E-005</v>
       </c>
       <c r="W12" s="7" t="n">
         <v>0.00808909050606186</v>
@@ -4704,7 +4737,7 @@
         <v>0.00108791700528768</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -4769,7 +4802,8 @@
         <v>0</v>
       </c>
       <c r="V13" s="7" t="n">
-        <v>0.041529698286526</v>
+        <f aca="false">SUM(E13:U13)</f>
+        <v>0.000562512528487591</v>
       </c>
       <c r="W13" s="7" t="n">
         <v>0.0342047614455674</v>
@@ -4778,7 +4812,7 @@
         <v>0.00126615714752568</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -4843,7 +4877,8 @@
         <v>0</v>
       </c>
       <c r="V14" s="7" t="n">
-        <v>0.00481898476349576</v>
+        <f aca="false">SUM(E14:U14)</f>
+        <v>5.04705284311925E-005</v>
       </c>
       <c r="W14" s="7" t="n">
         <v>0.00313070637584664</v>
@@ -4852,7 +4887,7 @@
         <v>0.00072651601301265</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4917,7 +4952,8 @@
         <v>0</v>
       </c>
       <c r="V15" s="7" t="n">
-        <v>0.00340948127538477</v>
+        <f aca="false">SUM(E15:U15)</f>
+        <v>1.796510464276E-005</v>
       </c>
       <c r="W15" s="7" t="n">
         <v>0.00243344254968238</v>
@@ -4926,7 +4962,7 @@
         <v>0.000400818299282602</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -4991,7 +5027,8 @@
         <v>0</v>
       </c>
       <c r="V16" s="7" t="n">
-        <v>0.00493838970774339</v>
+        <f aca="false">SUM(E16:U16)</f>
+        <v>6.18753504491642E-005</v>
       </c>
       <c r="W16" s="7" t="n">
         <v>0.00421680282934813</v>
@@ -5000,7 +5037,7 @@
         <v>0.000236901720923407</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -5065,7 +5102,8 @@
         <v>0</v>
       </c>
       <c r="V17" s="7" t="n">
-        <v>0.0355748589432285</v>
+        <f aca="false">SUM(E17:U17)</f>
+        <v>0.0011425071113728</v>
       </c>
       <c r="W17" s="7" t="n">
         <v>0.0241190679893542</v>
@@ -5074,7 +5112,7 @@
         <v>0.003440045234134</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -5139,7 +5177,8 @@
         <v>0</v>
       </c>
       <c r="V18" s="7" t="n">
-        <v>0.0123647599151417</v>
+        <f aca="false">SUM(E18:U18)</f>
+        <v>0.000287360824956114</v>
       </c>
       <c r="W18" s="7" t="n">
         <v>0.0103696151760344</v>
@@ -5148,7 +5187,7 @@
         <v>0.000420417000219476</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
         <v>25</v>
       </c>
@@ -5213,7 +5252,8 @@
         <v>1.70542216982774E-011</v>
       </c>
       <c r="V19" s="7" t="n">
-        <v>1.13367402116402E-005</v>
+        <f aca="false">SUM(E19:U19)</f>
+        <v>4.14132739698699E-009</v>
       </c>
       <c r="W19" s="7" t="n">
         <v>4.3160171179583E-007</v>
@@ -5222,7 +5262,7 @@
         <v>7.74478680361033E-006</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
@@ -5287,7 +5327,8 @@
         <v>0</v>
       </c>
       <c r="V20" s="7" t="n">
-        <v>3.31036290071584E-006</v>
+        <f aca="false">SUM(E20:U20)</f>
+        <v>1.16889045730205E-009</v>
       </c>
       <c r="W20" s="7" t="n">
         <v>1.22236539060068E-007</v>
@@ -5296,7 +5337,7 @@
         <v>2.11574852163087E-006</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
         <v>25</v>
       </c>
@@ -5361,7 +5402,8 @@
         <v>0</v>
       </c>
       <c r="V21" s="7" t="n">
-        <v>1.29560209772798E-005</v>
+        <f aca="false">SUM(E21:U21)</f>
+        <v>6.5989512360688E-010</v>
       </c>
       <c r="W21" s="7" t="n">
         <v>1.69044506691566E-007</v>
@@ -5370,7 +5412,7 @@
         <v>9.06504201680673E-006</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
         <v>25</v>
       </c>
@@ -5435,7 +5477,8 @@
         <v>0</v>
       </c>
       <c r="V22" s="7" t="n">
-        <v>1.53676579520697E-005</v>
+        <f aca="false">SUM(E22:U22)</f>
+        <v>1.12010204137855E-008</v>
       </c>
       <c r="W22" s="7" t="n">
         <v>1.23699035169623E-007</v>
@@ -5444,7 +5487,7 @@
         <v>9.78428260192966E-006</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
         <v>25</v>
       </c>
@@ -5509,7 +5552,8 @@
         <v>2.39091987671193E-010</v>
       </c>
       <c r="V23" s="7" t="n">
-        <v>0.000217747864923747</v>
+        <f aca="false">SUM(E23:U23)</f>
+        <v>7.6033848401069E-008</v>
       </c>
       <c r="W23" s="7" t="n">
         <v>6.2977093059446E-006</v>
@@ -5518,7 +5562,7 @@
         <v>0.000148986725801432</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
         <v>25</v>
       </c>
@@ -5583,7 +5627,8 @@
         <v>0</v>
       </c>
       <c r="V24" s="7" t="n">
-        <v>9.87497721755369E-005</v>
+        <f aca="false">SUM(E24:U24)</f>
+        <v>3.52494016163066E-009</v>
       </c>
       <c r="W24" s="7" t="n">
         <v>3.16501400560224E-006</v>
@@ -5592,7 +5637,7 @@
         <v>7.05979707438531E-005</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
         <v>25</v>
       </c>
@@ -5657,7 +5702,8 @@
         <v>0</v>
       </c>
       <c r="V25" s="7" t="n">
-        <v>0.000278090569561158</v>
+        <f aca="false">SUM(E25:U25)</f>
+        <v>1.82706579029676E-007</v>
       </c>
       <c r="W25" s="7" t="n">
         <v>1.16542172424525E-005</v>
@@ -5666,7 +5712,7 @@
         <v>0.000174279489573607</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
         <v>25</v>
       </c>
@@ -5731,7 +5777,8 @@
         <v>0</v>
       </c>
       <c r="V26" s="7" t="n">
-        <v>0.00023080815437286</v>
+        <f aca="false">SUM(E26:U26)</f>
+        <v>1.21868726272532E-007</v>
       </c>
       <c r="W26" s="7" t="n">
         <v>4.06349206349206E-006</v>
@@ -5740,7 +5787,7 @@
         <v>0.000126291627762216</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
         <v>25</v>
       </c>
@@ -5805,7 +5852,8 @@
         <v>0</v>
       </c>
       <c r="V27" s="7" t="n">
-        <v>0.000212217736933259</v>
+        <f aca="false">SUM(E27:U27)</f>
+        <v>1.72263061897232E-007</v>
       </c>
       <c r="W27" s="7" t="n">
         <v>3.93907989090378E-005</v>
@@ -5814,7 +5862,7 @@
         <v>9.91723701863894E-005</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
         <v>25</v>
       </c>
@@ -5879,7 +5927,8 @@
         <v>1.92545819816825E-009</v>
       </c>
       <c r="V28" s="7" t="n">
-        <v>5.52998636530971E-005</v>
+        <f aca="false">SUM(E28:U28)</f>
+        <v>1.06355893352223E-008</v>
       </c>
       <c r="W28" s="7" t="n">
         <v>3.8129474011827E-006</v>
@@ -5888,7 +5937,7 @@
         <v>2.61501041658227E-005</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
         <v>25</v>
       </c>
@@ -5953,7 +6002,8 @@
         <v>0</v>
       </c>
       <c r="V29" s="7" t="n">
-        <v>0.000375226445804206</v>
+        <f aca="false">SUM(E29:U29)</f>
+        <v>2.41967408591707E-007</v>
       </c>
       <c r="W29" s="7" t="n">
         <v>1.40413649105153E-005</v>
@@ -5962,7 +6012,7 @@
         <v>0.000245013676384402</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
         <v>25</v>
       </c>
@@ -6027,7 +6077,8 @@
         <v>0</v>
       </c>
       <c r="V30" s="7" t="n">
-        <v>9.18631195351267E-006</v>
+        <f aca="false">SUM(E30:U30)</f>
+        <v>1.41728368796874E-009</v>
       </c>
       <c r="W30" s="7" t="n">
         <v>2.29192280303401E-007</v>
@@ -6036,7 +6087,7 @@
         <v>8.10233452503561E-006</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
         <v>25</v>
       </c>
@@ -6101,7 +6152,8 @@
         <v>0</v>
       </c>
       <c r="V31" s="7" t="n">
-        <v>0.000653934165917123</v>
+        <f aca="false">SUM(E31:U31)</f>
+        <v>5.0862219630936E-007</v>
       </c>
       <c r="W31" s="7" t="n">
         <v>1.88434112845717E-005</v>
@@ -6110,7 +6162,7 @@
         <v>0.000236656346812212</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
         <v>25</v>
       </c>
@@ -6175,7 +6227,8 @@
         <v>0</v>
       </c>
       <c r="V32" s="7" t="n">
-        <v>8.92975093926643E-005</v>
+        <f aca="false">SUM(E32:U32)</f>
+        <v>5.55636303707168E-008</v>
       </c>
       <c r="W32" s="7" t="n">
         <v>1.90469167040993E-005</v>
@@ -6184,7 +6237,7 @@
         <v>0.000232956214937649</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
         <v>25</v>
       </c>
@@ -6249,7 +6302,8 @@
         <v>0</v>
       </c>
       <c r="V33" s="7" t="n">
-        <v>0.000116323614167505</v>
+        <f aca="false">SUM(E33:U33)</f>
+        <v>9.11331208528063E-008</v>
       </c>
       <c r="W33" s="7" t="n">
         <v>1.45273690731029E-006</v>
@@ -6258,7 +6312,7 @@
         <v>7.34224184754248E-005</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
         <v>25</v>
       </c>
@@ -6323,7 +6377,8 @@
         <v>0</v>
       </c>
       <c r="V34" s="7" t="n">
-        <v>0.000135206740639641</v>
+        <f aca="false">SUM(E34:U34)</f>
+        <v>1.29474954432514E-007</v>
       </c>
       <c r="W34" s="7" t="n">
         <v>1.12703856571946E-005</v>
@@ -6332,7 +6387,7 @@
         <v>7.54697313675911E-005</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
         <v>25</v>
       </c>
@@ -6397,7 +6452,8 @@
         <v>0</v>
       </c>
       <c r="V35" s="7" t="n">
-        <v>3.47272112205559E-005</v>
+        <f aca="false">SUM(E35:U35)</f>
+        <v>1.05095052842381E-008</v>
       </c>
       <c r="W35" s="7" t="n">
         <v>4.52483832131708E-006</v>
@@ -6406,7 +6462,7 @@
         <v>1.18843356980872E-005</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
         <v>25</v>
       </c>
@@ -6471,7 +6527,8 @@
         <v>0</v>
       </c>
       <c r="V36" s="7" t="n">
-        <v>0.000137535942229496</v>
+        <f aca="false">SUM(E36:U36)</f>
+        <v>5.03350679926345E-008</v>
       </c>
       <c r="W36" s="7" t="n">
         <v>3.92155062051743E-006</v>
@@ -6480,7 +6537,7 @@
         <v>8.66117227497538E-005</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
         <v>25</v>
       </c>
@@ -6545,7 +6602,8 @@
         <v>0</v>
       </c>
       <c r="V37" s="7" t="n">
-        <v>8.05839229213638E-005</v>
+        <f aca="false">SUM(E37:U37)</f>
+        <v>2.14026567151602E-008</v>
       </c>
       <c r="W37" s="7" t="n">
         <v>7.8706485511225E-006</v>
@@ -6554,7 +6612,7 @@
         <v>4.7295504808849E-005</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
         <v>25</v>
       </c>
@@ -6619,7 +6677,8 @@
         <v>0</v>
       </c>
       <c r="V38" s="7" t="n">
-        <v>1.41412300914954E-005</v>
+        <f aca="false">SUM(E38:U38)</f>
+        <v>3.91960092113541E-009</v>
       </c>
       <c r="W38" s="7" t="n">
         <v>4.28945613741018E-006</v>
@@ -6628,7 +6687,7 @@
         <v>6.50721411787057E-006</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
         <v>25</v>
       </c>
@@ -6693,7 +6752,8 @@
         <v>0</v>
       </c>
       <c r="V39" s="7" t="n">
-        <v>4.94175933965979E-005</v>
+        <f aca="false">SUM(E39:U39)</f>
+        <v>9.08497078414461E-009</v>
       </c>
       <c r="W39" s="7" t="n">
         <v>8.68402518706015E-006</v>
@@ -6702,7 +6762,7 @@
         <v>1.87623456906989E-005</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
         <v>25</v>
       </c>
@@ -6767,7 +6827,8 @@
         <v>0</v>
       </c>
       <c r="V40" s="7" t="n">
-        <v>4.19921400756668E-005</v>
+        <f aca="false">SUM(E40:U40)</f>
+        <v>7.61860068531485E-009</v>
       </c>
       <c r="W40" s="7" t="n">
         <v>4.68132945468852E-006</v>
@@ -6776,7 +6837,7 @@
         <v>3.11999877138856E-005</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
         <v>25</v>
       </c>
@@ -6841,7 +6902,8 @@
         <v>0</v>
       </c>
       <c r="V41" s="7" t="n">
-        <v>1.55419079500978E-005</v>
+        <f aca="false">SUM(E41:U41)</f>
+        <v>4.13200437503889E-009</v>
       </c>
       <c r="W41" s="7" t="n">
         <v>2.32584810200019E-006</v>
@@ -6850,7 +6912,7 @@
         <v>8.34805599261492E-006</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
         <v>25</v>
       </c>
@@ -6915,7 +6977,8 @@
         <v>2.45619281875655E-008</v>
       </c>
       <c r="V42" s="7" t="n">
-        <v>0.000177043967890465</v>
+        <f aca="false">SUM(E42:U42)</f>
+        <v>3.07571148344275E-007</v>
       </c>
       <c r="W42" s="7" t="n">
         <v>8.65941910229048E-006</v>
@@ -6924,7 +6987,7 @@
         <v>0.000109230271128868</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
         <v>25</v>
       </c>
@@ -6989,7 +7052,8 @@
         <v>2.96949419218293E-010</v>
       </c>
       <c r="V43" s="7" t="n">
-        <v>9.6531557362526E-005</v>
+        <f aca="false">SUM(E43:U43)</f>
+        <v>3.11245263273904E-008</v>
       </c>
       <c r="W43" s="7" t="n">
         <v>6.82604727805026E-006</v>
@@ -8168,10 +8232,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8219,6 +8283,9 @@
       <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="N1" s="23" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -8260,6 +8327,9 @@
       <c r="M2" s="0" t="n">
         <v>5.48488227400302</v>
       </c>
+      <c r="N2" s="0" t="n">
+        <v>7.3482069736456</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -8301,6 +8371,9 @@
       <c r="M3" s="0" t="n">
         <v>2.60926606216575</v>
       </c>
+      <c r="N3" s="0" t="n">
+        <v>3.67555245089079</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -8342,6 +8415,9 @@
       <c r="M4" s="0" t="n">
         <v>6.22549391704</v>
       </c>
+      <c r="N4" s="0" t="n">
+        <v>7.7494</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -8383,6 +8459,9 @@
       <c r="M5" s="0" t="n">
         <v>1.74677976836</v>
       </c>
+      <c r="N5" s="0" t="n">
+        <v>2.7947</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -8394,7 +8473,7 @@
       <c r="C6" s="0" t="n">
         <v>69.4866667310927</v>
       </c>
-      <c r="D6" s="23" t="n">
+      <c r="D6" s="24" t="n">
         <v>3.55495857846617</v>
       </c>
       <c r="E6" s="0" t="n">
@@ -8423,6 +8502,9 @@
       </c>
       <c r="M6" s="0" t="n">
         <v>3.24065352308549</v>
+      </c>
+      <c r="N6" s="25" t="n">
+        <v>115.962814684184</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8465,6 +8547,9 @@
       <c r="M7" s="0" t="n">
         <v>4.56076901820934</v>
       </c>
+      <c r="N7" s="25" t="n">
+        <v>168.193913397624</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -8506,6 +8591,9 @@
       <c r="M8" s="0" t="n">
         <v>4.70419091891999</v>
       </c>
+      <c r="N8" s="25" t="n">
+        <v>70.2568127278382</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -8547,6 +8635,9 @@
       <c r="M9" s="0" t="n">
         <v>14.3126164539504</v>
       </c>
+      <c r="N9" s="25" t="n">
+        <v>125.389167088083</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -8558,35 +8649,38 @@
       <c r="C10" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="M10" s="26" t="s">
         <v>63</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8596,38 +8690,41 @@
       <c r="B11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="D11" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="E11" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="G11" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="H11" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="I11" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="J11" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="K11" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="L11" s="26" t="s">
         <v>74</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/sedDegr.xlsx
+++ b/sedDegr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="169" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="169" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WFL" sheetId="1" state="visible" r:id="rId2"/>
@@ -99,6 +99,9 @@
     <t>N</t>
   </si>
   <si>
+    <t>Sitosterol</t>
+  </si>
+  <si>
     <t>Media Sed BZ</t>
   </si>
   <si>
@@ -166,21 +169,6 @@
   </si>
   <si>
     <t>site</t>
-  </si>
-  <si>
-    <r>
-      <t>β</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>-Sitosterol</t>
-    </r>
   </si>
   <si>
     <t>Acc Eff</t>
@@ -290,7 +278,7 @@
     <numFmt numFmtId="171" formatCode="MM/DD/YY"/>
     <numFmt numFmtId="172" formatCode="0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -334,13 +322,6 @@
     <font>
       <sz val="9"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -430,7 +411,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -519,11 +500,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -535,7 +512,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3828,8 +3805,8 @@
   </sheetPr>
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S4" activeCellId="0" sqref="S4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3867,7 +3844,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>10</v>
@@ -7091,7 +7068,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="14"/>
       <c r="Y1" s="14"/>
@@ -7099,7 +7076,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="15"/>
       <c r="Y2" s="15"/>
@@ -7107,7 +7084,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">100-67.87</f>
@@ -7116,7 +7093,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2.65</v>
@@ -7124,7 +7101,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="16" t="n">
         <f aca="false">WFL!D44</f>
@@ -7133,7 +7110,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="17" t="n">
         <f aca="false">Sheet3!B5/Sheet3!B4</f>
@@ -7142,7 +7119,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="18" t="n">
         <f aca="false">WFL!D46</f>
@@ -7151,7 +7128,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="19" t="n">
         <f aca="false">Sheet3!B7/Sheet3!B4</f>
@@ -7160,18 +7137,18 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>12.52</v>
@@ -7179,13 +7156,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>4.73</v>
@@ -7193,18 +7170,18 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>0.55</v>
@@ -7212,13 +7189,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>0.21</v>
@@ -7226,16 +7203,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7571,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>20</v>
@@ -7623,16 +7600,16 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7981,7 +7958,7 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8234,8 +8211,8 @@
   </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8245,10 +8222,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -8262,8 +8239,8 @@
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>49</v>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
@@ -8283,7 +8260,7 @@
       <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8473,7 +8450,7 @@
       <c r="C6" s="0" t="n">
         <v>69.4866667310927</v>
       </c>
-      <c r="D6" s="24" t="n">
+      <c r="D6" s="23" t="n">
         <v>3.55495857846617</v>
       </c>
       <c r="E6" s="0" t="n">
@@ -8503,7 +8480,7 @@
       <c r="M6" s="0" t="n">
         <v>3.24065352308549</v>
       </c>
-      <c r="N6" s="25" t="n">
+      <c r="N6" s="24" t="n">
         <v>115.962814684184</v>
       </c>
     </row>
@@ -8547,7 +8524,7 @@
       <c r="M7" s="0" t="n">
         <v>4.56076901820934</v>
       </c>
-      <c r="N7" s="25" t="n">
+      <c r="N7" s="24" t="n">
         <v>168.193913397624</v>
       </c>
     </row>
@@ -8591,7 +8568,7 @@
       <c r="M8" s="0" t="n">
         <v>4.70419091891999</v>
       </c>
-      <c r="N8" s="25" t="n">
+      <c r="N8" s="24" t="n">
         <v>70.2568127278382</v>
       </c>
     </row>
@@ -8635,7 +8612,7 @@
       <c r="M9" s="0" t="n">
         <v>14.3126164539504</v>
       </c>
-      <c r="N9" s="25" t="n">
+      <c r="N9" s="24" t="n">
         <v>125.389167088083</v>
       </c>
     </row>
@@ -8649,37 +8626,37 @@
       <c r="C10" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="25" t="s">
         <v>64</v>
       </c>
     </row>
@@ -8690,40 +8667,40 @@
       <c r="B11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="26" t="s">
+      <c r="L11" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="26" t="s">
+      <c r="N11" s="25" t="s">
         <v>76</v>
       </c>
     </row>
